--- a/Dokumentation/Zeitplan_joao_Correia.xlsx
+++ b/Dokumentation/Zeitplan_joao_Correia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00_project\ipa_joao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\00_project\ipa_joao\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D63F2A87-D6D2-4D14-9D2A-8F661E1C8594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DB6810-EEFD-45E8-8313-74C683659C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15255" yWindow="5400" windowWidth="21600" windowHeight="12735" xr2:uid="{B89AD676-944C-450D-93C2-5644D63A8514}"/>
+    <workbookView xWindow="13845" yWindow="480" windowWidth="21600" windowHeight="11505" xr2:uid="{B89AD676-944C-450D-93C2-5644D63A8514}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>3.1.3</t>
   </si>
   <si>
-    <t>Firmabeschrieb</t>
-  </si>
-  <si>
     <t>3.1.4</t>
   </si>
   <si>
@@ -514,6 +511,9 @@
   </si>
   <si>
     <t>Systemmodellierung (uml diagramm)</t>
+  </si>
+  <si>
+    <t>Firmenbeschrieb</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1026,9 +1026,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1131,6 +1128,7 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1167,7 +1165,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1484,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E724F4-8276-4FB5-885D-8ADC5A3409FB}">
   <dimension ref="A1:AM91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,7 +1490,7 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="40"/>
+    <col min="4" max="4" width="11.42578125" style="39"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
@@ -1535,7 +1532,7 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
       <c r="D4"/>
@@ -1551,7 +1548,7 @@
       <c r="D5"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1561,18 +1558,18 @@
       <c r="D6"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="2"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="2"/>
       <c r="C8" s="14"/>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="100" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1577,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="99"/>
       <c r="F9" s="99"/>
@@ -1619,185 +1616,185 @@
       <c r="AM9" s="99"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="100"/>
       <c r="C10" s="101"/>
       <c r="D10" s="102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="103"/>
       <c r="F10" s="104"/>
       <c r="G10" s="94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H10" s="95"/>
       <c r="I10" s="96"/>
       <c r="J10" s="94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K10" s="95"/>
       <c r="L10" s="96"/>
       <c r="M10" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N10" s="95"/>
       <c r="O10" s="96"/>
       <c r="P10" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="95"/>
       <c r="R10" s="96"/>
       <c r="S10" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T10" s="95"/>
       <c r="U10" s="96"/>
       <c r="V10" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W10" s="95"/>
       <c r="X10" s="96"/>
       <c r="Y10" s="94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z10" s="95"/>
       <c r="AA10" s="96"/>
       <c r="AB10" s="94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC10" s="95"/>
       <c r="AD10" s="96"/>
       <c r="AE10" s="94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF10" s="95"/>
       <c r="AG10" s="97"/>
       <c r="AH10" s="94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI10" s="95"/>
       <c r="AJ10" s="97"/>
       <c r="AK10" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL10" s="95"/>
       <c r="AM10" s="97"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="21">
         <v>1</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="92" t="s">
+      <c r="G11" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="91" t="s">
+      <c r="I11" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="92" t="s">
+      <c r="J11" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="91" t="s">
+      <c r="L11" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="92" t="s">
+      <c r="M11" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="91" t="s">
+      <c r="O11" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="N11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="O11" s="92" t="s">
+      <c r="P11" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="P11" s="91" t="s">
+      <c r="R11" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="Q11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="R11" s="92" t="s">
+      <c r="S11" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="S11" s="91" t="s">
+      <c r="U11" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="T11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="U11" s="92" t="s">
+      <c r="V11" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="V11" s="91" t="s">
+      <c r="X11" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="W11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="X11" s="92" t="s">
+      <c r="Y11" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z11" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="Y11" s="91" t="s">
+      <c r="AA11" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="Z11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA11" s="92" t="s">
+      <c r="AB11" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC11" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="AB11" s="91" t="s">
+      <c r="AD11" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="AC11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD11" s="92" t="s">
+      <c r="AE11" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF11" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="AE11" s="91" t="s">
+      <c r="AG11" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="AF11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG11" s="92" t="s">
+      <c r="AH11" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI11" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="AH11" s="91" t="s">
+      <c r="AJ11" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="AI11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ11" s="92" t="s">
+      <c r="AK11" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL11" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="AK11" s="91" t="s">
+      <c r="AM11" s="91" t="s">
         <v>99</v>
-      </c>
-      <c r="AL11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM11" s="92" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1805,62 +1802,62 @@
       <c r="B12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="50">
         <v>1</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="86">
         <v>1</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="88"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="88"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="88"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="88"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="88"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="88"/>
+      <c r="AM12" s="87"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="51">
+      <c r="C13" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="50">
         <v>0.2</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="51">
         <v>0.2</v>
       </c>
       <c r="F13" s="24"/>
@@ -1903,65 +1900,67 @@
       <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="39"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="39"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="38"/>
       <c r="K14" s="29"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="39"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="38"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="39"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="38"/>
       <c r="Q14" s="29"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="39"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="38"/>
       <c r="T14" s="29"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="39"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="38"/>
       <c r="W14" s="29"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="39"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="38"/>
       <c r="Z14" s="29"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="39"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="38"/>
       <c r="AC14" s="29"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="39"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="38"/>
       <c r="AF14" s="29"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="39"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="38"/>
       <c r="AI14" s="29"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="39"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="38"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="49"/>
+      <c r="AM14" s="48"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="25">
         <v>2</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="51">
         <v>2.5</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="25">
         <v>3</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="93">
+        <v>0.2</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="25"/>
       <c r="K15" s="23"/>
@@ -1999,19 +1998,23 @@
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="77" t="s">
-        <v>94</v>
+      <c r="C16" s="76" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="25">
         <v>0.1</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="53">
+      <c r="E16" s="37"/>
+      <c r="F16" s="52">
         <v>0.1</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="25">
+        <v>0.1</v>
+      </c>
       <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="53">
+        <v>0.1</v>
+      </c>
       <c r="J16" s="25"/>
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
@@ -2045,23 +2048,23 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="77" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="25">
         <v>2</v>
       </c>
       <c r="E17" s="25"/>
-      <c r="F17" s="54">
+      <c r="F17" s="53">
         <v>4</v>
       </c>
       <c r="G17" s="25">
         <v>2</v>
       </c>
-      <c r="H17" s="105">
+      <c r="H17" s="93">
         <v>2</v>
       </c>
       <c r="I17" s="24"/>
@@ -2098,11 +2101,11 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="79" t="s">
-        <v>87</v>
+      <c r="C18" s="78" t="s">
+        <v>86</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -2110,7 +2113,9 @@
       <c r="G18" s="25">
         <v>2</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="93">
+        <v>1</v>
+      </c>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="23"/>
@@ -2148,7 +2153,7 @@
       <c r="B19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="78" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="25"/>
@@ -2158,7 +2163,9 @@
         <v>1</v>
       </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="53">
+        <v>1</v>
+      </c>
       <c r="J19" s="25">
         <v>1</v>
       </c>
@@ -2197,7 +2204,7 @@
       <c r="B20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="78" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="25"/>
@@ -2244,7 +2251,7 @@
       <c r="B21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="78" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="25"/>
@@ -2291,7 +2298,7 @@
       <c r="B22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="78" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="25"/>
@@ -2336,9 +2343,9 @@
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="78" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="25"/>
@@ -2382,10 +2389,10 @@
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>152</v>
+        <v>139</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>151</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -2425,102 +2432,102 @@
       <c r="AL24" s="23"/>
       <c r="AM24" s="24"/>
     </row>
-    <row r="25" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="55"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="57"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="54"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="54"/>
+      <c r="AM25" s="56"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="39"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="29"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="39"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="38"/>
       <c r="K26" s="29"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="39"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="38"/>
       <c r="N26" s="29"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="39"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="38"/>
       <c r="Q26" s="29"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="39"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="38"/>
       <c r="T26" s="29"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="39"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="38"/>
       <c r="W26" s="29"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="39"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="38"/>
       <c r="Z26" s="29"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="39"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="38"/>
       <c r="AC26" s="29"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="39"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="38"/>
       <c r="AF26" s="29"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="39"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="38"/>
       <c r="AI26" s="29"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="39"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="38"/>
       <c r="AL26" s="29"/>
-      <c r="AM26" s="49"/>
+      <c r="AM26" s="48"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="78" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="26"/>
@@ -2567,8 +2574,8 @@
       <c r="B28" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="78" t="s">
-        <v>67</v>
+      <c r="C28" s="77" t="s">
+        <v>158</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
@@ -2614,8 +2621,8 @@
       <c r="B29" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="78" t="s">
-        <v>102</v>
+      <c r="C29" s="77" t="s">
+        <v>101</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -2661,7 +2668,7 @@
       <c r="B30" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="77" t="s">
         <v>55</v>
       </c>
       <c r="D30" s="26"/>
@@ -2706,10 +2713,10 @@
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="77" t="s">
         <v>68</v>
-      </c>
-      <c r="C31" s="78" t="s">
-        <v>69</v>
       </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
@@ -2753,10 +2760,10 @@
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="77" t="s">
         <v>70</v>
-      </c>
-      <c r="C32" s="78" t="s">
-        <v>71</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -2797,58 +2804,58 @@
       <c r="AL32" s="27"/>
       <c r="AM32" s="28"/>
     </row>
-    <row r="33" spans="1:39" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="46"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="47"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="46"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="47"/>
+      <c r="C33" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="46"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="46"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="79" t="s">
-        <v>73</v>
+      <c r="C34" s="78" t="s">
+        <v>72</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -2894,8 +2901,8 @@
       <c r="B35" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="78" t="s">
-        <v>74</v>
+      <c r="C35" s="77" t="s">
+        <v>73</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
@@ -2936,58 +2943,58 @@
       <c r="AL35" s="27"/>
       <c r="AM35" s="28"/>
     </row>
-    <row r="36" spans="1:39" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="46"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="47"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="47"/>
-      <c r="AK36" s="46"/>
-      <c r="AL36" s="45"/>
-      <c r="AM36" s="47"/>
+      <c r="B36" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="46"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="46"/>
+      <c r="AK36" s="45"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="46"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="78" t="s">
-        <v>153</v>
+      <c r="C37" s="77" t="s">
+        <v>152</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
@@ -3031,10 +3038,10 @@
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="78" t="s">
-        <v>154</v>
+        <v>103</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>153</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
@@ -3078,10 +3085,10 @@
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="78" t="s">
-        <v>155</v>
+        <v>104</v>
+      </c>
+      <c r="C39" s="77" t="s">
+        <v>75</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
@@ -3125,10 +3132,10 @@
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="78" t="s">
-        <v>76</v>
+        <v>105</v>
+      </c>
+      <c r="C40" s="77" t="s">
+        <v>154</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
@@ -3170,12 +3177,11 @@
       <c r="AM40" s="28"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
       <c r="B41" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="78" t="s">
-        <v>157</v>
+        <v>106</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>156</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
@@ -3219,10 +3225,10 @@
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="78" t="s">
-        <v>158</v>
+        <v>107</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>157</v>
       </c>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
@@ -3266,10 +3272,10 @@
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="78" t="s">
-        <v>77</v>
+        <v>155</v>
+      </c>
+      <c r="C43" s="77" t="s">
+        <v>76</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
@@ -3310,103 +3316,103 @@
       <c r="AL43" s="27"/>
       <c r="AM43" s="28"/>
     </row>
-    <row r="44" spans="1:39" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
-      <c r="B44" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="56"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="57"/>
-      <c r="AB44" s="56"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="57"/>
-      <c r="AE44" s="56"/>
-      <c r="AF44" s="55"/>
-      <c r="AG44" s="57"/>
-      <c r="AH44" s="56"/>
-      <c r="AI44" s="55"/>
-      <c r="AJ44" s="57"/>
-      <c r="AK44" s="56"/>
-      <c r="AL44" s="55"/>
-      <c r="AM44" s="57"/>
+      <c r="B44" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="55"/>
+      <c r="Z44" s="54"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="54"/>
+      <c r="AD44" s="56"/>
+      <c r="AE44" s="55"/>
+      <c r="AF44" s="54"/>
+      <c r="AG44" s="56"/>
+      <c r="AH44" s="55"/>
+      <c r="AI44" s="54"/>
+      <c r="AJ44" s="56"/>
+      <c r="AK44" s="55"/>
+      <c r="AL44" s="54"/>
+      <c r="AM44" s="56"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
-      <c r="I45" s="49"/>
+      <c r="I45" s="48"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
-      <c r="L45" s="49"/>
+      <c r="L45" s="48"/>
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
-      <c r="O45" s="49"/>
+      <c r="O45" s="48"/>
       <c r="P45" s="29"/>
       <c r="Q45" s="29"/>
-      <c r="R45" s="49"/>
+      <c r="R45" s="48"/>
       <c r="S45" s="29"/>
       <c r="T45" s="29"/>
-      <c r="U45" s="49"/>
+      <c r="U45" s="48"/>
       <c r="V45" s="29"/>
       <c r="W45" s="29"/>
-      <c r="X45" s="49"/>
+      <c r="X45" s="48"/>
       <c r="Y45" s="29"/>
       <c r="Z45" s="29"/>
-      <c r="AA45" s="49"/>
+      <c r="AA45" s="48"/>
       <c r="AB45" s="29"/>
       <c r="AC45" s="29"/>
-      <c r="AD45" s="49"/>
+      <c r="AD45" s="48"/>
       <c r="AE45" s="29"/>
       <c r="AF45" s="29"/>
-      <c r="AG45" s="49"/>
+      <c r="AG45" s="48"/>
       <c r="AH45" s="29"/>
       <c r="AI45" s="29"/>
-      <c r="AJ45" s="49"/>
+      <c r="AJ45" s="48"/>
       <c r="AK45" s="29"/>
       <c r="AL45" s="29"/>
-      <c r="AM45" s="49"/>
+      <c r="AM45" s="48"/>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="79" t="s">
-        <v>78</v>
+      <c r="C46" s="78" t="s">
+        <v>77</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
@@ -3452,8 +3458,8 @@
       <c r="B47" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="79" t="s">
-        <v>83</v>
+      <c r="C47" s="78" t="s">
+        <v>82</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
@@ -3499,8 +3505,8 @@
       <c r="B48" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="83" t="s">
-        <v>79</v>
+      <c r="C48" s="82" t="s">
+        <v>78</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
@@ -3546,8 +3552,8 @@
       <c r="B49" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="79" t="s">
-        <v>80</v>
+      <c r="C49" s="78" t="s">
+        <v>79</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -3593,8 +3599,8 @@
       <c r="B50" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="79" t="s">
-        <v>81</v>
+      <c r="C50" s="78" t="s">
+        <v>80</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
@@ -3640,8 +3646,8 @@
       <c r="B51" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="79" t="s">
-        <v>82</v>
+      <c r="C51" s="78" t="s">
+        <v>81</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
@@ -3687,8 +3693,8 @@
       <c r="B52" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="83" t="s">
-        <v>85</v>
+      <c r="C52" s="82" t="s">
+        <v>84</v>
       </c>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
@@ -3732,10 +3738,10 @@
     <row r="53" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="79" t="s">
-        <v>86</v>
+        <v>110</v>
+      </c>
+      <c r="C53" s="78" t="s">
+        <v>85</v>
       </c>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
@@ -3776,58 +3782,58 @@
       <c r="AL53" s="27"/>
       <c r="AM53" s="28"/>
     </row>
-    <row r="54" spans="1:39" s="48" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" s="47" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
-      <c r="B54" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="45"/>
-      <c r="X54" s="47"/>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="45"/>
-      <c r="AA54" s="47"/>
-      <c r="AB54" s="46"/>
-      <c r="AC54" s="45"/>
-      <c r="AD54" s="47"/>
-      <c r="AE54" s="46"/>
-      <c r="AF54" s="45"/>
-      <c r="AG54" s="47"/>
-      <c r="AH54" s="46"/>
-      <c r="AI54" s="45"/>
-      <c r="AJ54" s="47"/>
-      <c r="AK54" s="46"/>
-      <c r="AL54" s="45"/>
-      <c r="AM54" s="47"/>
+      <c r="B54" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="44"/>
+      <c r="AA54" s="46"/>
+      <c r="AB54" s="45"/>
+      <c r="AC54" s="44"/>
+      <c r="AD54" s="46"/>
+      <c r="AE54" s="45"/>
+      <c r="AF54" s="44"/>
+      <c r="AG54" s="46"/>
+      <c r="AH54" s="45"/>
+      <c r="AI54" s="44"/>
+      <c r="AJ54" s="46"/>
+      <c r="AK54" s="45"/>
+      <c r="AL54" s="44"/>
+      <c r="AM54" s="46"/>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="79" t="s">
-        <v>88</v>
+        <v>114</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>87</v>
       </c>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
@@ -3871,10 +3877,10 @@
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="79" t="s">
-        <v>89</v>
+        <v>115</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>88</v>
       </c>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
@@ -3920,10 +3926,10 @@
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="79" t="s">
-        <v>90</v>
+        <v>116</v>
+      </c>
+      <c r="C57" s="78" t="s">
+        <v>89</v>
       </c>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
@@ -3966,10 +3972,10 @@
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B58" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="79" t="s">
-        <v>91</v>
+        <v>142</v>
+      </c>
+      <c r="C58" s="78" t="s">
+        <v>90</v>
       </c>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -4010,58 +4016,58 @@
       <c r="AL58" s="27"/>
       <c r="AM58" s="28"/>
     </row>
-    <row r="59" spans="1:39" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59"/>
-      <c r="B59" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="93" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="45"/>
-      <c r="U59" s="47"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="45"/>
-      <c r="X59" s="47"/>
-      <c r="Y59" s="46"/>
-      <c r="Z59" s="45"/>
-      <c r="AA59" s="47"/>
-      <c r="AB59" s="46"/>
-      <c r="AC59" s="45"/>
-      <c r="AD59" s="47"/>
-      <c r="AE59" s="46"/>
-      <c r="AF59" s="45"/>
-      <c r="AG59" s="47"/>
-      <c r="AH59" s="46"/>
-      <c r="AI59" s="45"/>
-      <c r="AJ59" s="47"/>
-      <c r="AK59" s="46"/>
-      <c r="AL59" s="45"/>
-      <c r="AM59" s="47"/>
+      <c r="B59" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="46"/>
+      <c r="Y59" s="45"/>
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="46"/>
+      <c r="AB59" s="45"/>
+      <c r="AC59" s="44"/>
+      <c r="AD59" s="46"/>
+      <c r="AE59" s="45"/>
+      <c r="AF59" s="44"/>
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="45"/>
+      <c r="AI59" s="44"/>
+      <c r="AJ59" s="46"/>
+      <c r="AK59" s="45"/>
+      <c r="AL59" s="44"/>
+      <c r="AM59" s="46"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="83" t="s">
-        <v>110</v>
+        <v>135</v>
+      </c>
+      <c r="C60" s="82" t="s">
+        <v>109</v>
       </c>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
@@ -4107,10 +4113,10 @@
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="79" t="s">
-        <v>112</v>
+        <v>138</v>
+      </c>
+      <c r="C61" s="78" t="s">
+        <v>111</v>
       </c>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
@@ -4151,103 +4157,103 @@
       <c r="AL61" s="27"/>
       <c r="AM61" s="28"/>
     </row>
-    <row r="62" spans="1:39" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
-      <c r="B62" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="63"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="61"/>
-      <c r="R62" s="63"/>
-      <c r="S62" s="62"/>
-      <c r="T62" s="61"/>
-      <c r="U62" s="63"/>
-      <c r="V62" s="62"/>
-      <c r="W62" s="61"/>
-      <c r="X62" s="63"/>
-      <c r="Y62" s="62"/>
-      <c r="Z62" s="61"/>
-      <c r="AA62" s="63"/>
-      <c r="AB62" s="62"/>
-      <c r="AC62" s="61"/>
-      <c r="AD62" s="63"/>
-      <c r="AE62" s="62"/>
-      <c r="AF62" s="61"/>
-      <c r="AG62" s="63"/>
-      <c r="AH62" s="62"/>
-      <c r="AI62" s="61"/>
-      <c r="AJ62" s="63"/>
-      <c r="AK62" s="62"/>
-      <c r="AL62" s="61"/>
-      <c r="AM62" s="63"/>
+      <c r="B62" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="60"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="60"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="62"/>
+      <c r="V62" s="61"/>
+      <c r="W62" s="60"/>
+      <c r="X62" s="62"/>
+      <c r="Y62" s="61"/>
+      <c r="Z62" s="60"/>
+      <c r="AA62" s="62"/>
+      <c r="AB62" s="61"/>
+      <c r="AC62" s="60"/>
+      <c r="AD62" s="62"/>
+      <c r="AE62" s="61"/>
+      <c r="AF62" s="60"/>
+      <c r="AG62" s="62"/>
+      <c r="AH62" s="61"/>
+      <c r="AI62" s="60"/>
+      <c r="AJ62" s="62"/>
+      <c r="AK62" s="61"/>
+      <c r="AL62" s="60"/>
+      <c r="AM62" s="62"/>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="39"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="38"/>
       <c r="H63" s="29"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="39"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="38"/>
       <c r="K63" s="29"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="39"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="38"/>
       <c r="N63" s="29"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="39"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="38"/>
       <c r="Q63" s="29"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="39"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="38"/>
       <c r="T63" s="29"/>
-      <c r="U63" s="49"/>
-      <c r="V63" s="39"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="38"/>
       <c r="W63" s="29"/>
-      <c r="X63" s="49"/>
-      <c r="Y63" s="39"/>
+      <c r="X63" s="48"/>
+      <c r="Y63" s="38"/>
       <c r="Z63" s="29"/>
-      <c r="AA63" s="49"/>
-      <c r="AB63" s="39"/>
+      <c r="AA63" s="48"/>
+      <c r="AB63" s="38"/>
       <c r="AC63" s="29"/>
-      <c r="AD63" s="49"/>
-      <c r="AE63" s="39"/>
+      <c r="AD63" s="48"/>
+      <c r="AE63" s="38"/>
       <c r="AF63" s="29"/>
-      <c r="AG63" s="49"/>
-      <c r="AH63" s="39"/>
+      <c r="AG63" s="48"/>
+      <c r="AH63" s="38"/>
       <c r="AI63" s="29"/>
-      <c r="AJ63" s="49"/>
-      <c r="AK63" s="39"/>
+      <c r="AJ63" s="48"/>
+      <c r="AK63" s="38"/>
       <c r="AL63" s="29"/>
-      <c r="AM63" s="49"/>
+      <c r="AM63" s="48"/>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="78" t="s">
-        <v>96</v>
+        <v>145</v>
+      </c>
+      <c r="C64" s="77" t="s">
+        <v>95</v>
       </c>
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
@@ -4290,10 +4296,10 @@
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="78" t="s">
-        <v>97</v>
+        <v>146</v>
+      </c>
+      <c r="C65" s="77" t="s">
+        <v>96</v>
       </c>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
@@ -4336,10 +4342,10 @@
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="78" t="s">
-        <v>113</v>
+        <v>147</v>
+      </c>
+      <c r="C66" s="77" t="s">
+        <v>112</v>
       </c>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
@@ -4379,149 +4385,149 @@
       <c r="AL66" s="27"/>
       <c r="AM66" s="28"/>
     </row>
-    <row r="67" spans="1:39" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
-      <c r="B67" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="61"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="62"/>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="63"/>
-      <c r="S67" s="62"/>
-      <c r="T67" s="61"/>
-      <c r="U67" s="63"/>
-      <c r="V67" s="62"/>
-      <c r="W67" s="61"/>
-      <c r="X67" s="63"/>
-      <c r="Y67" s="62"/>
-      <c r="Z67" s="61"/>
-      <c r="AA67" s="63"/>
-      <c r="AB67" s="62"/>
-      <c r="AC67" s="61"/>
-      <c r="AD67" s="63"/>
-      <c r="AE67" s="62"/>
-      <c r="AF67" s="61"/>
-      <c r="AG67" s="63"/>
-      <c r="AH67" s="62"/>
-      <c r="AI67" s="61"/>
-      <c r="AJ67" s="63"/>
-      <c r="AK67" s="62"/>
-      <c r="AL67" s="61"/>
-      <c r="AM67" s="63"/>
-    </row>
-    <row r="68" spans="1:39" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="60"/>
+      <c r="O67" s="62"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="60"/>
+      <c r="R67" s="62"/>
+      <c r="S67" s="61"/>
+      <c r="T67" s="60"/>
+      <c r="U67" s="62"/>
+      <c r="V67" s="61"/>
+      <c r="W67" s="60"/>
+      <c r="X67" s="62"/>
+      <c r="Y67" s="61"/>
+      <c r="Z67" s="60"/>
+      <c r="AA67" s="62"/>
+      <c r="AB67" s="61"/>
+      <c r="AC67" s="60"/>
+      <c r="AD67" s="62"/>
+      <c r="AE67" s="61"/>
+      <c r="AF67" s="60"/>
+      <c r="AG67" s="62"/>
+      <c r="AH67" s="61"/>
+      <c r="AI67" s="60"/>
+      <c r="AJ67" s="62"/>
+      <c r="AK67" s="61"/>
+      <c r="AL67" s="60"/>
+      <c r="AM67" s="62"/>
+    </row>
+    <row r="68" spans="1:39" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="65"/>
+      <c r="O68" s="67"/>
+      <c r="P68" s="66"/>
+      <c r="Q68" s="65"/>
+      <c r="R68" s="67"/>
+      <c r="S68" s="66"/>
+      <c r="T68" s="65"/>
+      <c r="U68" s="67"/>
+      <c r="V68" s="66"/>
+      <c r="W68" s="65"/>
+      <c r="X68" s="67"/>
+      <c r="Y68" s="66"/>
+      <c r="Z68" s="65"/>
+      <c r="AA68" s="67"/>
+      <c r="AB68" s="66"/>
+      <c r="AC68" s="65"/>
+      <c r="AD68" s="67"/>
+      <c r="AE68" s="66"/>
+      <c r="AF68" s="65"/>
+      <c r="AG68" s="67"/>
+      <c r="AH68" s="66"/>
+      <c r="AI68" s="65"/>
+      <c r="AJ68" s="67"/>
+      <c r="AK68" s="66"/>
+      <c r="AL68" s="65"/>
+      <c r="AM68" s="67"/>
+    </row>
+    <row r="69" spans="1:39" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="C68" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="68"/>
-      <c r="P68" s="67"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="68"/>
-      <c r="S68" s="67"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="68"/>
-      <c r="V68" s="67"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="68"/>
-      <c r="Y68" s="67"/>
-      <c r="Z68" s="66"/>
-      <c r="AA68" s="68"/>
-      <c r="AB68" s="67"/>
-      <c r="AC68" s="66"/>
-      <c r="AD68" s="68"/>
-      <c r="AE68" s="67"/>
-      <c r="AF68" s="66"/>
-      <c r="AG68" s="68"/>
-      <c r="AH68" s="67"/>
-      <c r="AI68" s="66"/>
-      <c r="AJ68" s="68"/>
-      <c r="AK68" s="67"/>
-      <c r="AL68" s="66"/>
-      <c r="AM68" s="68"/>
-    </row>
-    <row r="69" spans="1:39" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="78" t="s">
-        <v>138</v>
-      </c>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="72"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="72"/>
-      <c r="M69" s="71"/>
-      <c r="N69" s="70"/>
-      <c r="O69" s="72"/>
-      <c r="P69" s="71"/>
-      <c r="Q69" s="70"/>
-      <c r="R69" s="72"/>
-      <c r="S69" s="71"/>
-      <c r="T69" s="70"/>
-      <c r="U69" s="72"/>
-      <c r="V69" s="71"/>
-      <c r="W69" s="70"/>
-      <c r="X69" s="72"/>
-      <c r="Y69" s="71"/>
-      <c r="Z69" s="70"/>
-      <c r="AA69" s="72"/>
-      <c r="AE69" s="71">
+      <c r="C69" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="70"/>
+      <c r="N69" s="69"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="69"/>
+      <c r="R69" s="71"/>
+      <c r="S69" s="70"/>
+      <c r="T69" s="69"/>
+      <c r="U69" s="71"/>
+      <c r="V69" s="70"/>
+      <c r="W69" s="69"/>
+      <c r="X69" s="71"/>
+      <c r="Y69" s="70"/>
+      <c r="Z69" s="69"/>
+      <c r="AA69" s="71"/>
+      <c r="AE69" s="70">
         <v>0.1</v>
       </c>
-      <c r="AF69" s="70"/>
-      <c r="AG69" s="72"/>
-      <c r="AH69" s="71">
+      <c r="AF69" s="69"/>
+      <c r="AG69" s="71"/>
+      <c r="AH69" s="70">
         <v>1</v>
       </c>
-      <c r="AI69" s="70"/>
-      <c r="AJ69" s="72"/>
-      <c r="AK69" s="71"/>
-      <c r="AL69" s="70"/>
-      <c r="AM69" s="72"/>
+      <c r="AI69" s="69"/>
+      <c r="AJ69" s="71"/>
+      <c r="AK69" s="70"/>
+      <c r="AL69" s="69"/>
+      <c r="AM69" s="71"/>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
-      <c r="B70" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" s="78" t="s">
-        <v>137</v>
+      <c r="B70" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="77" t="s">
+        <v>136</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
@@ -4559,102 +4565,102 @@
       <c r="AL70" s="27"/>
       <c r="AM70" s="28"/>
     </row>
-    <row r="71" spans="1:39" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
-      <c r="B71" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="63"/>
-      <c r="M71" s="62"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="63"/>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="62"/>
-      <c r="T71" s="61"/>
-      <c r="U71" s="63"/>
-      <c r="V71" s="62"/>
-      <c r="W71" s="61"/>
-      <c r="X71" s="63"/>
-      <c r="Y71" s="62"/>
-      <c r="Z71" s="61"/>
-      <c r="AA71" s="63"/>
-      <c r="AB71" s="62"/>
-      <c r="AC71" s="61"/>
-      <c r="AD71" s="63"/>
-      <c r="AE71" s="62"/>
-      <c r="AF71" s="61"/>
-      <c r="AG71" s="63"/>
-      <c r="AH71" s="62"/>
-      <c r="AI71" s="61"/>
-      <c r="AJ71" s="63"/>
-      <c r="AK71" s="62"/>
-      <c r="AL71" s="61"/>
-      <c r="AM71" s="63"/>
+      <c r="B71" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="60"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="61"/>
+      <c r="Q71" s="60"/>
+      <c r="R71" s="62"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="60"/>
+      <c r="U71" s="62"/>
+      <c r="V71" s="61"/>
+      <c r="W71" s="60"/>
+      <c r="X71" s="62"/>
+      <c r="Y71" s="61"/>
+      <c r="Z71" s="60"/>
+      <c r="AA71" s="62"/>
+      <c r="AB71" s="61"/>
+      <c r="AC71" s="60"/>
+      <c r="AD71" s="62"/>
+      <c r="AE71" s="61"/>
+      <c r="AF71" s="60"/>
+      <c r="AG71" s="62"/>
+      <c r="AH71" s="61"/>
+      <c r="AI71" s="60"/>
+      <c r="AJ71" s="62"/>
+      <c r="AK71" s="61"/>
+      <c r="AL71" s="60"/>
+      <c r="AM71" s="62"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="81" t="s">
+      <c r="C72" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="39"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="38"/>
       <c r="H72" s="29"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="39"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="38"/>
       <c r="K72" s="29"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="39"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="38"/>
       <c r="N72" s="29"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="39"/>
+      <c r="O72" s="48"/>
+      <c r="P72" s="38"/>
       <c r="Q72" s="29"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="39"/>
+      <c r="R72" s="48"/>
+      <c r="S72" s="38"/>
       <c r="T72" s="29"/>
-      <c r="U72" s="49"/>
-      <c r="V72" s="39"/>
+      <c r="U72" s="48"/>
+      <c r="V72" s="38"/>
       <c r="W72" s="29"/>
-      <c r="X72" s="49"/>
-      <c r="Y72" s="39"/>
+      <c r="X72" s="48"/>
+      <c r="Y72" s="38"/>
       <c r="Z72" s="29"/>
-      <c r="AA72" s="49"/>
-      <c r="AB72" s="39"/>
+      <c r="AA72" s="48"/>
+      <c r="AB72" s="38"/>
       <c r="AC72" s="29"/>
-      <c r="AD72" s="49"/>
-      <c r="AE72" s="39"/>
+      <c r="AD72" s="48"/>
+      <c r="AE72" s="38"/>
       <c r="AF72" s="29"/>
-      <c r="AG72" s="49"/>
-      <c r="AH72" s="39"/>
+      <c r="AG72" s="48"/>
+      <c r="AH72" s="38"/>
       <c r="AI72" s="29"/>
-      <c r="AJ72" s="49"/>
-      <c r="AK72" s="39"/>
+      <c r="AJ72" s="48"/>
+      <c r="AK72" s="38"/>
       <c r="AL72" s="29"/>
-      <c r="AM72" s="49"/>
+      <c r="AM72" s="48"/>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="79" t="s">
+      <c r="C73" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="26"/>
@@ -4699,7 +4705,7 @@
       <c r="B74" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="79" t="s">
+      <c r="C74" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="26"/>
@@ -4744,7 +4750,7 @@
       <c r="B75" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="79" t="s">
+      <c r="C75" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="26"/>
@@ -4789,7 +4795,7 @@
       <c r="B76" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="79" t="s">
+      <c r="C76" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="26"/>
@@ -4834,7 +4840,7 @@
       <c r="B77" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="79" t="s">
+      <c r="C77" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="26"/>
@@ -4932,22 +4938,22 @@
       <c r="B87" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D87" s="41" t="s">
+      <c r="D87" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="86"/>
-      <c r="B88" s="85" t="s">
+      <c r="A88" s="85"/>
+      <c r="B88" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="42" t="s">
+      <c r="D88" s="41" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">

--- a/Dokumentation/Zeitplan_joao_Correia.xlsx
+++ b/Dokumentation/Zeitplan_joao_Correia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\00_project\ipa_joao\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00_project\ipa_joao\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DB6810-EEFD-45E8-8313-74C683659C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A198DA-957C-4448-8DC2-4138CA3762CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13845" yWindow="480" windowWidth="21600" windowHeight="11505" xr2:uid="{B89AD676-944C-450D-93C2-5644D63A8514}"/>
+    <workbookView xWindow="7200" yWindow="4665" windowWidth="21600" windowHeight="12735" xr2:uid="{B89AD676-944C-450D-93C2-5644D63A8514}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1129,6 +1129,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,24 +1164,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1481,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E724F4-8276-4FB5-885D-8ADC5A3409FB}">
   <dimension ref="A1:AM91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,115 +1570,115 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="99"/>
-      <c r="AJ9" s="99"/>
-      <c r="AK9" s="99"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="99"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="104"/>
+      <c r="AG9" s="104"/>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="104"/>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="104"/>
+      <c r="AM9" s="104"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="94" t="s">
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="94" t="s">
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="94" t="s">
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="N10" s="95"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="94" t="s">
+      <c r="N10" s="100"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="94" t="s">
+      <c r="Q10" s="100"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="T10" s="95"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="94" t="s">
+      <c r="T10" s="100"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="W10" s="95"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="94" t="s">
+      <c r="W10" s="100"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="94" t="s">
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="94" t="s">
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="94" t="s">
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="AI10" s="95"/>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="94" t="s">
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="AL10" s="95"/>
-      <c r="AM10" s="97"/>
+      <c r="AL10" s="100"/>
+      <c r="AM10" s="102"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="78" t="s">
@@ -2169,7 +2169,9 @@
       <c r="J19" s="25">
         <v>1</v>
       </c>
-      <c r="K19" s="23"/>
+      <c r="K19" s="93">
+        <v>2</v>
+      </c>
       <c r="L19" s="24"/>
       <c r="M19" s="25"/>
       <c r="N19" s="23"/>
@@ -2201,7 +2203,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="78" t="s">
@@ -2216,7 +2218,9 @@
       <c r="J20" s="25">
         <v>1</v>
       </c>
-      <c r="K20" s="23"/>
+      <c r="K20" s="93">
+        <v>0.5</v>
+      </c>
       <c r="L20" s="24"/>
       <c r="M20" s="25"/>
       <c r="N20" s="23"/>
@@ -2248,7 +2252,7 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="78" t="s">
@@ -2263,7 +2267,9 @@
       <c r="J21" s="25">
         <v>0.5</v>
       </c>
-      <c r="K21" s="23"/>
+      <c r="K21" s="93">
+        <v>0.5</v>
+      </c>
       <c r="L21" s="24"/>
       <c r="M21" s="25"/>
       <c r="N21" s="23"/>
@@ -2310,7 +2316,9 @@
       <c r="J22" s="25">
         <v>1</v>
       </c>
-      <c r="K22" s="23"/>
+      <c r="K22" s="23">
+        <v>0.4</v>
+      </c>
       <c r="L22" s="24"/>
       <c r="M22" s="25"/>
       <c r="N22" s="23"/>
@@ -2342,7 +2350,7 @@
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="32" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="78" t="s">
@@ -2357,7 +2365,9 @@
       <c r="J23" s="25">
         <v>1</v>
       </c>
-      <c r="K23" s="23"/>
+      <c r="K23" s="93">
+        <v>0.2</v>
+      </c>
       <c r="L23" s="24"/>
       <c r="N23" s="23"/>
       <c r="O23" s="24"/>
@@ -4968,11 +4978,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
     <mergeCell ref="AB10:AD10"/>
     <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH10:AJ10"/>
@@ -4983,6 +4988,11 @@
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4991,15 +5001,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CCA9B0B81E3CB9409C129017DE6E9DDD" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b4d33a61f6d93acd2f5bb33bcd02c3da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5377820a-2d68-4adb-aaae-bcf0ba6bf8f0" xmlns:ns4="5835faf6-6bc7-44cd-9638-9d00e184b482" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e23a8e84f7c9cb6cabb5016b2cfc6c5" ns3:_="" ns4:_="">
     <xsd:import namespace="5377820a-2d68-4adb-aaae-bcf0ba6bf8f0"/>
@@ -5222,6 +5223,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5229,14 +5239,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662529E2-C398-4237-A004-9E9B5846A970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA18E47-C9B6-4A69-AAAC-F358C569EB24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5251,6 +5253,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662529E2-C398-4237-A004-9E9B5846A970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Dokumentation/Zeitplan_joao_Correia.xlsx
+++ b/Dokumentation/Zeitplan_joao_Correia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\00_project\ipa_joao\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00_project\ipa_joao\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EE64A6-B821-4CA1-B58E-696E24E56C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584919E4-DC2C-4584-B40C-34AA29AAA6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="480" windowWidth="21600" windowHeight="11505" xr2:uid="{B89AD676-944C-450D-93C2-5644D63A8514}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B89AD676-944C-450D-93C2-5644D63A8514}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="158">
   <si>
     <t>Aufgaben- und Terminplanung</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>3.1.3</t>
-  </si>
-  <si>
-    <t>3.1.4</t>
   </si>
   <si>
     <t>Motivation zur IPA Projekt Thema</t>
@@ -635,7 +632,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,12 +720,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1132,24 +1123,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1168,8 +1141,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E724F4-8276-4FB5-885D-8ADC5A3409FB}">
-  <dimension ref="A1:AM91"/>
+  <dimension ref="A1:AM90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,115 +1564,115 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="98"/>
-      <c r="AM9" s="98"/>
+      <c r="D9" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="103"/>
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="103"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="93" t="s">
+      <c r="H10" s="99"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="93" t="s">
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="93" t="s">
+      <c r="N10" s="99"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="N10" s="94"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="93" t="s">
+      <c r="Q10" s="99"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="93" t="s">
+      <c r="T10" s="99"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="T10" s="94"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="93" t="s">
+      <c r="W10" s="99"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="W10" s="94"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="93" t="s">
+      <c r="Z10" s="99"/>
+      <c r="AA10" s="100"/>
+      <c r="AB10" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="93" t="s">
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="100"/>
+      <c r="AE10" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="93" t="s">
+      <c r="AF10" s="99"/>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="93" t="s">
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="101"/>
+      <c r="AK10" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL10" s="94"/>
-      <c r="AM10" s="96"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="101"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
@@ -1695,112 +1683,112 @@
         <v>10</v>
       </c>
       <c r="D11" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="90" t="s">
+      <c r="G11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="89" t="s">
+      <c r="I11" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="90" t="s">
+      <c r="J11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="89" t="s">
+      <c r="L11" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="90" t="s">
+      <c r="M11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="M11" s="89" t="s">
+      <c r="O11" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="90" t="s">
+      <c r="P11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="P11" s="89" t="s">
+      <c r="R11" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="Q11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="R11" s="90" t="s">
+      <c r="S11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="S11" s="89" t="s">
+      <c r="U11" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="T11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="U11" s="90" t="s">
+      <c r="V11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="W11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="V11" s="89" t="s">
+      <c r="X11" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="W11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="X11" s="90" t="s">
+      <c r="Y11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="Y11" s="89" t="s">
+      <c r="AA11" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="Z11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA11" s="90" t="s">
+      <c r="AB11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="AB11" s="89" t="s">
+      <c r="AD11" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="AC11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD11" s="90" t="s">
+      <c r="AE11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="AE11" s="89" t="s">
+      <c r="AG11" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="AF11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG11" s="90" t="s">
+      <c r="AH11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="AH11" s="89" t="s">
+      <c r="AJ11" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="AI11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ11" s="90" t="s">
+      <c r="AK11" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="AK11" s="89" t="s">
+      <c r="AM11" s="90" t="s">
         <v>98</v>
-      </c>
-      <c r="AL11" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM11" s="90" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1858,7 +1846,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="49">
         <v>0.2</v>
@@ -2005,7 +1993,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="24">
         <v>0.1</v>
@@ -2111,7 +2099,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -2359,7 +2347,7 @@
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="77" t="s">
         <v>59</v>
@@ -2406,11 +2394,11 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="104" t="s">
-        <v>139</v>
+      <c r="B24" s="31" t="s">
+        <v>138</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -2455,10 +2443,10 @@
     <row r="25" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="78" t="s">
         <v>129</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>130</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
@@ -2544,7 +2532,7 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="77" t="s">
@@ -2560,7 +2548,7 @@
       <c r="K27" s="26"/>
       <c r="L27" s="27"/>
       <c r="M27" s="25">
-        <v>0.75</v>
+        <v>2.9</v>
       </c>
       <c r="N27" s="26"/>
       <c r="O27" s="27"/>
@@ -2591,11 +2579,11 @@
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="31" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -2638,11 +2626,11 @@
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="31" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -2656,7 +2644,9 @@
       <c r="M29" s="25">
         <v>0.5</v>
       </c>
-      <c r="N29" s="26"/>
+      <c r="N29" s="92">
+        <v>0.5</v>
+      </c>
       <c r="O29" s="27"/>
       <c r="P29" s="25"/>
       <c r="Q29" s="26"/>
@@ -2685,11 +2675,11 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="31" t="s">
         <v>66</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -2701,9 +2691,11 @@
       <c r="K30" s="26"/>
       <c r="L30" s="27"/>
       <c r="M30" s="25">
-        <v>1</v>
-      </c>
-      <c r="N30" s="26"/>
+        <v>0.2</v>
+      </c>
+      <c r="N30" s="92">
+        <v>0.15</v>
+      </c>
       <c r="O30" s="27"/>
       <c r="P30" s="25"/>
       <c r="Q30" s="26"/>
@@ -2732,11 +2724,11 @@
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="29" t="s">
-        <v>67</v>
+      <c r="B31" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -2750,7 +2742,9 @@
       <c r="M31" s="25">
         <v>0.2</v>
       </c>
-      <c r="N31" s="26"/>
+      <c r="N31" s="92">
+        <v>0.15</v>
+      </c>
       <c r="O31" s="27"/>
       <c r="P31" s="25"/>
       <c r="Q31" s="26"/>
@@ -2777,104 +2771,106 @@
       <c r="AL31" s="26"/>
       <c r="AM31" s="27"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="76" t="s">
+      <c r="B32" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="27"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="26"/>
-      <c r="AM32" s="27"/>
-    </row>
-    <row r="33" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="45"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="80" t="s">
+      <c r="B33" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="43"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="43"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="44"/>
-      <c r="AI33" s="43"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="44"/>
-      <c r="AL33" s="43"/>
-      <c r="AM33" s="45"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="N33" s="92">
+        <v>1</v>
+      </c>
+      <c r="O33" s="27"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="27"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="27"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="77" t="s">
+      <c r="B34" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="76" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="25"/>
@@ -2889,7 +2885,9 @@
       <c r="M34" s="25">
         <v>0.5</v>
       </c>
-      <c r="N34" s="26"/>
+      <c r="N34" s="92">
+        <v>1</v>
+      </c>
       <c r="O34" s="27"/>
       <c r="P34" s="25"/>
       <c r="Q34" s="26"/>
@@ -2916,102 +2914,102 @@
       <c r="AL34" s="26"/>
       <c r="AM34" s="27"/>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="B35" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="76" t="s">
+      <c r="B35" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="27"/>
-      <c r="AK35" s="25"/>
-      <c r="AL35" s="26"/>
-      <c r="AM35" s="27"/>
-    </row>
-    <row r="36" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="45"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="45"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="43"/>
+      <c r="AJ35" s="45"/>
+      <c r="AK35" s="44"/>
+      <c r="AL35" s="43"/>
+      <c r="AM35" s="45"/>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="44"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="44"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="44"/>
-      <c r="AC36" s="43"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="44"/>
-      <c r="AF36" s="43"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="44"/>
-      <c r="AI36" s="43"/>
-      <c r="AJ36" s="45"/>
-      <c r="AK36" s="44"/>
-      <c r="AL36" s="43"/>
-      <c r="AM36" s="45"/>
+      <c r="B36" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="27"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="29" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="C37" s="76" t="s">
         <v>152</v>
@@ -3025,12 +3023,13 @@
       <c r="J37" s="25"/>
       <c r="K37" s="26"/>
       <c r="L37" s="27"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="26"/>
+      <c r="M37" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="92">
+        <v>0.2</v>
+      </c>
       <c r="O37" s="27"/>
-      <c r="P37" s="25">
-        <v>2</v>
-      </c>
       <c r="Q37" s="26"/>
       <c r="R37" s="27"/>
       <c r="S37" s="25"/>
@@ -3061,7 +3060,7 @@
         <v>103</v>
       </c>
       <c r="C38" s="76" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -3072,11 +3071,10 @@
       <c r="J38" s="25"/>
       <c r="K38" s="26"/>
       <c r="L38" s="27"/>
-      <c r="M38" s="25"/>
       <c r="N38" s="26"/>
       <c r="O38" s="27"/>
       <c r="P38" s="25">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="26"/>
       <c r="R38" s="27"/>
@@ -3108,7 +3106,7 @@
         <v>104</v>
       </c>
       <c r="C39" s="76" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -3150,12 +3148,11 @@
       <c r="AM39" s="27"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
       <c r="B40" s="29" t="s">
         <v>105</v>
       </c>
       <c r="C40" s="76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -3170,7 +3167,7 @@
       <c r="N40" s="26"/>
       <c r="O40" s="27"/>
       <c r="P40" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="26"/>
       <c r="R40" s="27"/>
@@ -3197,6 +3194,7 @@
       <c r="AM40" s="27"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
       <c r="B41" s="29" t="s">
         <v>106</v>
       </c>
@@ -3216,7 +3214,7 @@
       <c r="N41" s="26"/>
       <c r="O41" s="27"/>
       <c r="P41" s="25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q41" s="26"/>
       <c r="R41" s="27"/>
@@ -3245,10 +3243,10 @@
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="29" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="C42" s="76" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -3263,7 +3261,7 @@
       <c r="N42" s="26"/>
       <c r="O42" s="27"/>
       <c r="P42" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="26"/>
       <c r="R42" s="27"/>
@@ -3289,150 +3287,150 @@
       <c r="AL42" s="26"/>
       <c r="AM42" s="27"/>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="27"/>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="26"/>
-      <c r="AM43" s="27"/>
-    </row>
-    <row r="44" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="55"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="55"/>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="55"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="53"/>
-      <c r="AG44" s="55"/>
-      <c r="AH44" s="54"/>
-      <c r="AI44" s="53"/>
-      <c r="AJ44" s="55"/>
-      <c r="AK44" s="54"/>
-      <c r="AL44" s="53"/>
-      <c r="AM44" s="55"/>
+    <row r="43" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="53"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="55"/>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="55"/>
+      <c r="AB43" s="54"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="55"/>
+      <c r="AE43" s="54"/>
+      <c r="AF43" s="53"/>
+      <c r="AG43" s="55"/>
+      <c r="AH43" s="54"/>
+      <c r="AI43" s="53"/>
+      <c r="AJ43" s="55"/>
+      <c r="AK43" s="54"/>
+      <c r="AL43" s="53"/>
+      <c r="AM43" s="55"/>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="47"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="47"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="28"/>
+      <c r="AJ44" s="47"/>
+      <c r="AK44" s="28"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="47"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="B45" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="47"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="47"/>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="28"/>
-      <c r="AG45" s="47"/>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="28"/>
-      <c r="AJ45" s="47"/>
-      <c r="AK45" s="28"/>
-      <c r="AL45" s="28"/>
-      <c r="AM45" s="47"/>
+      <c r="B45" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="25">
+        <v>1</v>
+      </c>
+      <c r="T45" s="26"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="27"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="26"/>
+      <c r="AG45" s="27"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="27"/>
+      <c r="AK45" s="25"/>
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="27"/>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C46" s="77" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -3450,7 +3448,7 @@
       <c r="Q46" s="26"/>
       <c r="R46" s="27"/>
       <c r="S46" s="25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T46" s="26"/>
       <c r="U46" s="27"/>
@@ -3476,10 +3474,10 @@
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="77" t="s">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="C47" s="81" t="s">
+        <v>77</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
@@ -3497,7 +3495,7 @@
       <c r="Q47" s="26"/>
       <c r="R47" s="27"/>
       <c r="S47" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T47" s="26"/>
       <c r="U47" s="27"/>
@@ -3523,9 +3521,9 @@
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="77" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="25"/>
@@ -3544,7 +3542,7 @@
       <c r="Q48" s="26"/>
       <c r="R48" s="27"/>
       <c r="S48" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T48" s="26"/>
       <c r="U48" s="27"/>
@@ -3570,7 +3568,7 @@
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C49" s="77" t="s">
         <v>79</v>
@@ -3591,7 +3589,7 @@
       <c r="Q49" s="26"/>
       <c r="R49" s="27"/>
       <c r="S49" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T49" s="26"/>
       <c r="U49" s="27"/>
@@ -3617,7 +3615,7 @@
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" s="77" t="s">
         <v>80</v>
@@ -3637,12 +3635,12 @@
       <c r="P50" s="25"/>
       <c r="Q50" s="26"/>
       <c r="R50" s="27"/>
-      <c r="S50" s="25">
-        <v>1</v>
-      </c>
+      <c r="S50" s="25"/>
       <c r="T50" s="26"/>
       <c r="U50" s="27"/>
-      <c r="V50" s="25"/>
+      <c r="V50" s="25">
+        <v>1</v>
+      </c>
       <c r="W50" s="26"/>
       <c r="X50" s="27"/>
       <c r="Y50" s="25"/>
@@ -3664,10 +3662,10 @@
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="77" t="s">
-        <v>81</v>
+        <v>39</v>
+      </c>
+      <c r="C51" s="81" t="s">
+        <v>83</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -3688,7 +3686,7 @@
       <c r="T51" s="26"/>
       <c r="U51" s="27"/>
       <c r="V51" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W51" s="26"/>
       <c r="X51" s="27"/>
@@ -3708,12 +3706,12 @@
       <c r="AL51" s="26"/>
       <c r="AM51" s="27"/>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="77" t="s">
         <v>84</v>
       </c>
       <c r="D52" s="25"/>
@@ -3735,7 +3733,7 @@
       <c r="T52" s="26"/>
       <c r="U52" s="27"/>
       <c r="V52" s="25">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="W52" s="26"/>
       <c r="X52" s="27"/>
@@ -3755,97 +3753,97 @@
       <c r="AL52" s="26"/>
       <c r="AM52" s="27"/>
     </row>
-    <row r="53" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" s="46" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
-      <c r="B53" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="W53" s="26"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="25"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="27"/>
-      <c r="AE53" s="25"/>
-      <c r="AF53" s="26"/>
-      <c r="AG53" s="27"/>
-      <c r="AH53" s="25"/>
-      <c r="AI53" s="26"/>
-      <c r="AJ53" s="27"/>
-      <c r="AK53" s="25"/>
-      <c r="AL53" s="26"/>
-      <c r="AM53" s="27"/>
-    </row>
-    <row r="54" spans="1:39" s="46" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="45"/>
+      <c r="Y53" s="44"/>
+      <c r="Z53" s="43"/>
+      <c r="AA53" s="45"/>
+      <c r="AB53" s="44"/>
+      <c r="AC53" s="43"/>
+      <c r="AD53" s="45"/>
+      <c r="AE53" s="44"/>
+      <c r="AF53" s="43"/>
+      <c r="AG53" s="45"/>
+      <c r="AH53" s="44"/>
+      <c r="AI53" s="43"/>
+      <c r="AJ53" s="45"/>
+      <c r="AK53" s="44"/>
+      <c r="AL53" s="43"/>
+      <c r="AM53" s="45"/>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="44"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="45"/>
-      <c r="Y54" s="44"/>
-      <c r="Z54" s="43"/>
-      <c r="AA54" s="45"/>
-      <c r="AB54" s="44"/>
-      <c r="AC54" s="43"/>
-      <c r="AD54" s="45"/>
-      <c r="AE54" s="44"/>
-      <c r="AF54" s="43"/>
-      <c r="AG54" s="45"/>
-      <c r="AH54" s="44"/>
-      <c r="AI54" s="43"/>
-      <c r="AJ54" s="45"/>
-      <c r="AK54" s="44"/>
-      <c r="AL54" s="43"/>
-      <c r="AM54" s="45"/>
+      <c r="C54" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="25">
+        <v>2</v>
+      </c>
+      <c r="W54" s="26"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="26"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="25"/>
+      <c r="AC54" s="26"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="25"/>
+      <c r="AF54" s="26"/>
+      <c r="AG54" s="27"/>
+      <c r="AH54" s="25"/>
+      <c r="AI54" s="26"/>
+      <c r="AJ54" s="27"/>
+      <c r="AK54" s="25"/>
+      <c r="AL54" s="26"/>
+      <c r="AM54" s="27"/>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -3874,11 +3872,13 @@
       <c r="T55" s="26"/>
       <c r="U55" s="27"/>
       <c r="V55" s="25">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="W55" s="26"/>
       <c r="X55" s="27"/>
-      <c r="Y55" s="25"/>
+      <c r="Y55" s="25">
+        <v>1</v>
+      </c>
       <c r="Z55" s="26"/>
       <c r="AA55" s="27"/>
       <c r="AB55" s="25"/>
@@ -3920,13 +3920,11 @@
       <c r="S56" s="25"/>
       <c r="T56" s="26"/>
       <c r="U56" s="27"/>
-      <c r="V56" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="V56" s="25"/>
       <c r="W56" s="26"/>
       <c r="X56" s="27"/>
       <c r="Y56" s="25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z56" s="26"/>
       <c r="AA56" s="27"/>
@@ -3944,9 +3942,8 @@
       <c r="AM56" s="27"/>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
       <c r="B57" s="29" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C57" s="77" t="s">
         <v>89</v>
@@ -3973,7 +3970,7 @@
       <c r="W57" s="26"/>
       <c r="X57" s="27"/>
       <c r="Y57" s="25">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Z57" s="26"/>
       <c r="AA57" s="27"/>
@@ -3990,104 +3987,107 @@
       <c r="AL57" s="26"/>
       <c r="AM57" s="27"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B58" s="29" t="s">
+    <row r="58" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="25"/>
-      <c r="W58" s="26"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="25">
-        <v>2</v>
-      </c>
-      <c r="Z58" s="26"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="25"/>
-      <c r="AC58" s="26"/>
-      <c r="AD58" s="27"/>
-      <c r="AE58" s="25"/>
-      <c r="AF58" s="26"/>
-      <c r="AG58" s="27"/>
-      <c r="AH58" s="25"/>
-      <c r="AI58" s="26"/>
-      <c r="AJ58" s="27"/>
-      <c r="AK58" s="25"/>
-      <c r="AL58" s="26"/>
-      <c r="AM58" s="27"/>
-    </row>
-    <row r="59" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="B59" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="44"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="45"/>
-      <c r="S59" s="44"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="45"/>
-      <c r="V59" s="44"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="45"/>
-      <c r="Y59" s="44"/>
-      <c r="Z59" s="43"/>
-      <c r="AA59" s="45"/>
-      <c r="AB59" s="44"/>
-      <c r="AC59" s="43"/>
-      <c r="AD59" s="45"/>
-      <c r="AE59" s="44"/>
-      <c r="AF59" s="43"/>
-      <c r="AG59" s="45"/>
-      <c r="AH59" s="44"/>
-      <c r="AI59" s="43"/>
-      <c r="AJ59" s="45"/>
-      <c r="AK59" s="44"/>
-      <c r="AL59" s="43"/>
-      <c r="AM59" s="45"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="45"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="43"/>
+      <c r="AA58" s="45"/>
+      <c r="AB58" s="44"/>
+      <c r="AC58" s="43"/>
+      <c r="AD58" s="45"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="43"/>
+      <c r="AG58" s="45"/>
+      <c r="AH58" s="44"/>
+      <c r="AI58" s="43"/>
+      <c r="AJ58" s="45"/>
+      <c r="AK58" s="44"/>
+      <c r="AL58" s="43"/>
+      <c r="AM58" s="45"/>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="26"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Z59" s="26"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="26"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="25"/>
+      <c r="AF59" s="26"/>
+      <c r="AG59" s="27"/>
+      <c r="AH59" s="25"/>
+      <c r="AI59" s="26"/>
+      <c r="AJ59" s="27"/>
+      <c r="AK59" s="25"/>
+      <c r="AL59" s="26"/>
+      <c r="AM59" s="27"/>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="81" t="s">
-        <v>109</v>
+        <v>137</v>
+      </c>
+      <c r="C60" s="77" t="s">
+        <v>110</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
@@ -4110,13 +4110,11 @@
       <c r="V60" s="25"/>
       <c r="W60" s="26"/>
       <c r="X60" s="27"/>
-      <c r="Y60" s="25">
-        <v>0.2</v>
-      </c>
+      <c r="Y60" s="25"/>
       <c r="Z60" s="26"/>
       <c r="AA60" s="27"/>
       <c r="AB60" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC60" s="26"/>
       <c r="AD60" s="27"/>
@@ -4130,142 +4128,141 @@
       <c r="AL60" s="26"/>
       <c r="AM60" s="27"/>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
-      <c r="B61" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="77" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="27"/>
-      <c r="V61" s="25"/>
-      <c r="W61" s="26"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="25"/>
-      <c r="Z61" s="26"/>
-      <c r="AA61" s="27"/>
-      <c r="AB61" s="25">
-        <v>3</v>
-      </c>
-      <c r="AC61" s="26"/>
-      <c r="AD61" s="27"/>
-      <c r="AE61" s="25"/>
-      <c r="AF61" s="26"/>
-      <c r="AG61" s="27"/>
-      <c r="AH61" s="25"/>
-      <c r="AI61" s="26"/>
-      <c r="AJ61" s="27"/>
-      <c r="AK61" s="25"/>
-      <c r="AL61" s="26"/>
-      <c r="AM61" s="27"/>
-    </row>
-    <row r="62" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="61"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="61"/>
+      <c r="Y61" s="60"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="61"/>
+      <c r="AB61" s="60"/>
+      <c r="AC61" s="59"/>
+      <c r="AD61" s="61"/>
+      <c r="AE61" s="60"/>
+      <c r="AF61" s="59"/>
+      <c r="AG61" s="61"/>
+      <c r="AH61" s="60"/>
+      <c r="AI61" s="59"/>
+      <c r="AJ61" s="61"/>
+      <c r="AK61" s="60"/>
+      <c r="AL61" s="59"/>
+      <c r="AM61" s="61"/>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
-      <c r="B62" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="61"/>
-      <c r="M62" s="60"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="60"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="61"/>
-      <c r="S62" s="60"/>
-      <c r="T62" s="59"/>
-      <c r="U62" s="61"/>
-      <c r="V62" s="60"/>
-      <c r="W62" s="59"/>
-      <c r="X62" s="61"/>
-      <c r="Y62" s="60"/>
-      <c r="Z62" s="59"/>
-      <c r="AA62" s="61"/>
-      <c r="AB62" s="60"/>
-      <c r="AC62" s="59"/>
-      <c r="AD62" s="61"/>
-      <c r="AE62" s="60"/>
-      <c r="AF62" s="59"/>
-      <c r="AG62" s="61"/>
-      <c r="AH62" s="60"/>
-      <c r="AI62" s="59"/>
-      <c r="AJ62" s="61"/>
-      <c r="AK62" s="60"/>
-      <c r="AL62" s="59"/>
-      <c r="AM62" s="61"/>
+      <c r="B62" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="47"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="47"/>
+      <c r="AB62" s="37"/>
+      <c r="AC62" s="28"/>
+      <c r="AD62" s="47"/>
+      <c r="AE62" s="37"/>
+      <c r="AF62" s="28"/>
+      <c r="AG62" s="47"/>
+      <c r="AH62" s="37"/>
+      <c r="AI62" s="28"/>
+      <c r="AJ62" s="47"/>
+      <c r="AK62" s="37"/>
+      <c r="AL62" s="28"/>
+      <c r="AM62" s="47"/>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="47"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="47"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="28"/>
-      <c r="X63" s="47"/>
-      <c r="Y63" s="37"/>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="47"/>
-      <c r="AB63" s="37"/>
-      <c r="AC63" s="28"/>
-      <c r="AD63" s="47"/>
-      <c r="AE63" s="37"/>
-      <c r="AF63" s="28"/>
-      <c r="AG63" s="47"/>
-      <c r="AH63" s="37"/>
-      <c r="AI63" s="28"/>
-      <c r="AJ63" s="47"/>
-      <c r="AK63" s="37"/>
-      <c r="AL63" s="28"/>
-      <c r="AM63" s="47"/>
+      <c r="C63" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="26"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="25"/>
+      <c r="Z63" s="26"/>
+      <c r="AA63" s="27"/>
+      <c r="AC63" s="26"/>
+      <c r="AD63" s="27"/>
+      <c r="AE63" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AF63" s="26"/>
+      <c r="AG63" s="27"/>
+      <c r="AH63" s="25"/>
+      <c r="AI63" s="26"/>
+      <c r="AJ63" s="27"/>
+      <c r="AK63" s="25"/>
+      <c r="AL63" s="26"/>
+      <c r="AM63" s="27"/>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -4302,7 +4299,7 @@
       <c r="AC64" s="26"/>
       <c r="AD64" s="27"/>
       <c r="AE64" s="25">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AF64" s="26"/>
       <c r="AG64" s="27"/>
@@ -4319,7 +4316,7 @@
         <v>146</v>
       </c>
       <c r="C65" s="76" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
@@ -4348,7 +4345,7 @@
       <c r="AC65" s="26"/>
       <c r="AD65" s="27"/>
       <c r="AE65" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF65" s="26"/>
       <c r="AG65" s="27"/>
@@ -4359,326 +4356,325 @@
       <c r="AL65" s="26"/>
       <c r="AM65" s="27"/>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="60"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="60"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="60"/>
+      <c r="T66" s="59"/>
+      <c r="U66" s="61"/>
+      <c r="V66" s="60"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="61"/>
+      <c r="Y66" s="60"/>
+      <c r="Z66" s="59"/>
+      <c r="AA66" s="61"/>
+      <c r="AB66" s="60"/>
+      <c r="AC66" s="59"/>
+      <c r="AD66" s="61"/>
+      <c r="AE66" s="60"/>
+      <c r="AF66" s="59"/>
+      <c r="AG66" s="61"/>
+      <c r="AH66" s="60"/>
+      <c r="AI66" s="59"/>
+      <c r="AJ66" s="61"/>
+      <c r="AK66" s="60"/>
+      <c r="AL66" s="59"/>
+      <c r="AM66" s="61"/>
+    </row>
+    <row r="67" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="26"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="25"/>
-      <c r="W66" s="26"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="25"/>
-      <c r="Z66" s="26"/>
-      <c r="AA66" s="27"/>
-      <c r="AC66" s="26"/>
-      <c r="AD66" s="27"/>
-      <c r="AE66" s="25">
+      <c r="C67" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="65"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="65"/>
+      <c r="Q67" s="64"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="65"/>
+      <c r="T67" s="64"/>
+      <c r="U67" s="66"/>
+      <c r="V67" s="65"/>
+      <c r="W67" s="64"/>
+      <c r="X67" s="66"/>
+      <c r="Y67" s="65"/>
+      <c r="Z67" s="64"/>
+      <c r="AA67" s="66"/>
+      <c r="AB67" s="65"/>
+      <c r="AC67" s="64"/>
+      <c r="AD67" s="66"/>
+      <c r="AE67" s="65"/>
+      <c r="AF67" s="64"/>
+      <c r="AG67" s="66"/>
+      <c r="AH67" s="65"/>
+      <c r="AI67" s="64"/>
+      <c r="AJ67" s="66"/>
+      <c r="AK67" s="65"/>
+      <c r="AL67" s="64"/>
+      <c r="AM67" s="66"/>
+    </row>
+    <row r="68" spans="1:39" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="70"/>
+      <c r="P68" s="69"/>
+      <c r="Q68" s="68"/>
+      <c r="R68" s="70"/>
+      <c r="S68" s="69"/>
+      <c r="T68" s="68"/>
+      <c r="U68" s="70"/>
+      <c r="V68" s="69"/>
+      <c r="W68" s="68"/>
+      <c r="X68" s="70"/>
+      <c r="Y68" s="69"/>
+      <c r="Z68" s="68"/>
+      <c r="AA68" s="70"/>
+      <c r="AE68" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="AF68" s="68"/>
+      <c r="AG68" s="70"/>
+      <c r="AH68" s="69">
         <v>1</v>
       </c>
-      <c r="AF66" s="26"/>
-      <c r="AG66" s="27"/>
-      <c r="AH66" s="25"/>
-      <c r="AI66" s="26"/>
-      <c r="AJ66" s="27"/>
-      <c r="AK66" s="25"/>
-      <c r="AL66" s="26"/>
-      <c r="AM66" s="27"/>
-    </row>
-    <row r="67" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="60"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="61"/>
-      <c r="S67" s="60"/>
-      <c r="T67" s="59"/>
-      <c r="U67" s="61"/>
-      <c r="V67" s="60"/>
-      <c r="W67" s="59"/>
-      <c r="X67" s="61"/>
-      <c r="Y67" s="60"/>
-      <c r="Z67" s="59"/>
-      <c r="AA67" s="61"/>
-      <c r="AB67" s="60"/>
-      <c r="AC67" s="59"/>
-      <c r="AD67" s="61"/>
-      <c r="AE67" s="60"/>
-      <c r="AF67" s="59"/>
-      <c r="AG67" s="61"/>
-      <c r="AH67" s="60"/>
-      <c r="AI67" s="59"/>
-      <c r="AJ67" s="61"/>
-      <c r="AK67" s="60"/>
-      <c r="AL67" s="59"/>
-      <c r="AM67" s="61"/>
-    </row>
-    <row r="68" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="64"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="64"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="65"/>
-      <c r="Q68" s="64"/>
-      <c r="R68" s="66"/>
-      <c r="S68" s="65"/>
-      <c r="T68" s="64"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="65"/>
-      <c r="W68" s="64"/>
-      <c r="X68" s="66"/>
-      <c r="Y68" s="65"/>
-      <c r="Z68" s="64"/>
-      <c r="AA68" s="66"/>
-      <c r="AB68" s="65"/>
-      <c r="AC68" s="64"/>
-      <c r="AD68" s="66"/>
-      <c r="AE68" s="65"/>
-      <c r="AF68" s="64"/>
-      <c r="AG68" s="66"/>
-      <c r="AH68" s="65"/>
-      <c r="AI68" s="64"/>
-      <c r="AJ68" s="66"/>
-      <c r="AK68" s="65"/>
-      <c r="AL68" s="64"/>
-      <c r="AM68" s="66"/>
-    </row>
-    <row r="69" spans="1:39" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI68" s="68"/>
+      <c r="AJ68" s="70"/>
+      <c r="AK68" s="69"/>
+      <c r="AL68" s="68"/>
+      <c r="AM68" s="70"/>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="63" t="s">
         <v>149</v>
       </c>
       <c r="C69" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="69"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="69"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="70"/>
-      <c r="M69" s="69"/>
-      <c r="N69" s="68"/>
-      <c r="O69" s="70"/>
-      <c r="P69" s="69"/>
-      <c r="Q69" s="68"/>
-      <c r="R69" s="70"/>
-      <c r="S69" s="69"/>
-      <c r="T69" s="68"/>
-      <c r="U69" s="70"/>
-      <c r="V69" s="69"/>
-      <c r="W69" s="68"/>
-      <c r="X69" s="70"/>
-      <c r="Y69" s="69"/>
-      <c r="Z69" s="68"/>
-      <c r="AA69" s="70"/>
-      <c r="AE69" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="AF69" s="68"/>
-      <c r="AG69" s="70"/>
-      <c r="AH69" s="69">
+        <v>135</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="27"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="26"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="26"/>
+      <c r="AA69" s="27"/>
+      <c r="AE69" s="25"/>
+      <c r="AF69" s="26"/>
+      <c r="AG69" s="27"/>
+      <c r="AH69" s="25">
         <v>1</v>
       </c>
-      <c r="AI69" s="68"/>
-      <c r="AJ69" s="70"/>
-      <c r="AK69" s="69"/>
-      <c r="AL69" s="68"/>
-      <c r="AM69" s="70"/>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AI69" s="26"/>
+      <c r="AJ69" s="27"/>
+      <c r="AK69" s="25"/>
+      <c r="AL69" s="26"/>
+      <c r="AM69" s="27"/>
+    </row>
+    <row r="70" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
-      <c r="B70" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="25"/>
-      <c r="T70" s="26"/>
-      <c r="U70" s="27"/>
-      <c r="V70" s="25"/>
-      <c r="W70" s="26"/>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="25"/>
-      <c r="Z70" s="26"/>
-      <c r="AA70" s="27"/>
-      <c r="AE70" s="25"/>
-      <c r="AF70" s="26"/>
-      <c r="AG70" s="27"/>
-      <c r="AH70" s="25">
-        <v>1</v>
-      </c>
-      <c r="AI70" s="26"/>
-      <c r="AJ70" s="27"/>
-      <c r="AK70" s="25"/>
-      <c r="AL70" s="26"/>
-      <c r="AM70" s="27"/>
-    </row>
-    <row r="71" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="60"/>
+      <c r="N70" s="59"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="60"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="61"/>
+      <c r="S70" s="60"/>
+      <c r="T70" s="59"/>
+      <c r="U70" s="61"/>
+      <c r="V70" s="60"/>
+      <c r="W70" s="59"/>
+      <c r="X70" s="61"/>
+      <c r="Y70" s="60"/>
+      <c r="Z70" s="59"/>
+      <c r="AA70" s="61"/>
+      <c r="AB70" s="60"/>
+      <c r="AC70" s="59"/>
+      <c r="AD70" s="61"/>
+      <c r="AE70" s="60"/>
+      <c r="AF70" s="59"/>
+      <c r="AG70" s="61"/>
+      <c r="AH70" s="60"/>
+      <c r="AI70" s="59"/>
+      <c r="AJ70" s="61"/>
+      <c r="AK70" s="60"/>
+      <c r="AL70" s="59"/>
+      <c r="AM70" s="61"/>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
-      <c r="B71" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="60"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="60"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="61"/>
-      <c r="S71" s="60"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="61"/>
-      <c r="V71" s="60"/>
-      <c r="W71" s="59"/>
-      <c r="X71" s="61"/>
-      <c r="Y71" s="60"/>
-      <c r="Z71" s="59"/>
-      <c r="AA71" s="61"/>
-      <c r="AB71" s="60"/>
-      <c r="AC71" s="59"/>
-      <c r="AD71" s="61"/>
-      <c r="AE71" s="60"/>
-      <c r="AF71" s="59"/>
-      <c r="AG71" s="61"/>
-      <c r="AH71" s="60"/>
-      <c r="AI71" s="59"/>
-      <c r="AJ71" s="61"/>
-      <c r="AK71" s="60"/>
-      <c r="AL71" s="59"/>
-      <c r="AM71" s="61"/>
+      <c r="B71" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="47"/>
+      <c r="Y71" s="37"/>
+      <c r="Z71" s="28"/>
+      <c r="AA71" s="47"/>
+      <c r="AB71" s="37"/>
+      <c r="AC71" s="28"/>
+      <c r="AD71" s="47"/>
+      <c r="AE71" s="37"/>
+      <c r="AF71" s="28"/>
+      <c r="AG71" s="47"/>
+      <c r="AH71" s="37"/>
+      <c r="AI71" s="28"/>
+      <c r="AJ71" s="47"/>
+      <c r="AK71" s="37"/>
+      <c r="AL71" s="28"/>
+      <c r="AM71" s="47"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
-      <c r="B72" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="47"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="47"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="47"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="28"/>
-      <c r="X72" s="47"/>
-      <c r="Y72" s="37"/>
-      <c r="Z72" s="28"/>
-      <c r="AA72" s="47"/>
-      <c r="AB72" s="37"/>
-      <c r="AC72" s="28"/>
-      <c r="AD72" s="47"/>
-      <c r="AE72" s="37"/>
-      <c r="AF72" s="28"/>
-      <c r="AG72" s="47"/>
-      <c r="AH72" s="37"/>
-      <c r="AI72" s="28"/>
-      <c r="AJ72" s="47"/>
-      <c r="AK72" s="37"/>
-      <c r="AL72" s="28"/>
-      <c r="AM72" s="47"/>
+      <c r="B72" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="26"/>
+      <c r="U72" s="27"/>
+      <c r="V72" s="25"/>
+      <c r="W72" s="26"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="25"/>
+      <c r="Z72" s="26"/>
+      <c r="AA72" s="27"/>
+      <c r="AB72" s="25"/>
+      <c r="AC72" s="26"/>
+      <c r="AD72" s="27"/>
+      <c r="AE72" s="25"/>
+      <c r="AF72" s="26"/>
+      <c r="AG72" s="27"/>
+      <c r="AH72" s="25"/>
+      <c r="AI72" s="26"/>
+      <c r="AJ72" s="27"/>
+      <c r="AK72" s="25"/>
+      <c r="AL72" s="26"/>
+      <c r="AM72" s="27"/>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C73" s="77" t="s">
         <v>13</v>
@@ -4723,7 +4719,7 @@
     <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" s="77" t="s">
         <v>13</v>
@@ -4768,7 +4764,7 @@
     <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C75" s="77" t="s">
         <v>13</v>
@@ -4813,7 +4809,7 @@
     <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C76" s="77" t="s">
         <v>13</v>
@@ -4857,142 +4853,92 @@
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
-      <c r="B77" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="26"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="25"/>
-      <c r="T77" s="26"/>
-      <c r="U77" s="27"/>
-      <c r="V77" s="25"/>
-      <c r="W77" s="26"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="25"/>
-      <c r="Z77" s="26"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="25"/>
-      <c r="AC77" s="26"/>
-      <c r="AD77" s="27"/>
-      <c r="AE77" s="25"/>
-      <c r="AF77" s="26"/>
-      <c r="AG77" s="27"/>
-      <c r="AH77" s="25"/>
-      <c r="AI77" s="26"/>
-      <c r="AJ77" s="27"/>
-      <c r="AK77" s="25"/>
-      <c r="AL77" s="26"/>
-      <c r="AM77" s="27"/>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="2"/>
       <c r="C78" s="14"/>
     </row>
-    <row r="79" spans="1:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="14"/>
+      <c r="B79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="80" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
-      <c r="B80" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="C80" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
-      <c r="B81" s="5"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="6"/>
       <c r="C82" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="6"/>
       <c r="C83" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="20" t="s">
+      <c r="B84" s="7"/>
+      <c r="C84" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="13" t="s">
+    <row r="86" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D87" s="39" t="s">
+      <c r="D86" s="39" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="84"/>
+      <c r="B87" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="84"/>
-      <c r="B88" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="40" t="s">
-        <v>50</v>
+      <c r="B88" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="30" t="s">
-        <v>91</v>
+      <c r="B89" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="11" t="s">
+      <c r="B90" s="11" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
     <mergeCell ref="AB10:AD10"/>
     <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH10:AJ10"/>
@@ -5003,6 +4949,11 @@
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5011,15 +4962,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CCA9B0B81E3CB9409C129017DE6E9DDD" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b4d33a61f6d93acd2f5bb33bcd02c3da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5377820a-2d68-4adb-aaae-bcf0ba6bf8f0" xmlns:ns4="5835faf6-6bc7-44cd-9638-9d00e184b482" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e23a8e84f7c9cb6cabb5016b2cfc6c5" ns3:_="" ns4:_="">
     <xsd:import namespace="5377820a-2d68-4adb-aaae-bcf0ba6bf8f0"/>
@@ -5242,6 +5184,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5249,14 +5200,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662529E2-C398-4237-A004-9E9B5846A970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA18E47-C9B6-4A69-AAAC-F358C569EB24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5271,6 +5214,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662529E2-C398-4237-A004-9E9B5846A970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Dokumentation/Zeitplan_joao_Correia.xlsx
+++ b/Dokumentation/Zeitplan_joao_Correia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00_project\ipa_joao\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584919E4-DC2C-4584-B40C-34AA29AAA6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76F23E1-96D6-4335-8698-A810D50530CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B89AD676-944C-450D-93C2-5644D63A8514}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="156">
   <si>
     <t>Aufgaben- und Terminplanung</t>
   </si>
@@ -252,18 +252,9 @@
     <t>Analyse</t>
   </si>
   <si>
-    <t>Ist Situationen genauer defenieren</t>
-  </si>
-  <si>
-    <t>Soll Situation genauere defenieren</t>
-  </si>
-  <si>
     <t>Entwurf/mockup</t>
   </si>
   <si>
-    <t>Mockups</t>
-  </si>
-  <si>
     <t>Test-Konzept</t>
   </si>
   <si>
@@ -495,22 +486,25 @@
     <t>Storyboard</t>
   </si>
   <si>
-    <t>Benutzer Rolle Defenieren</t>
-  </si>
-  <si>
     <t>Datenschutzt Richtlinien</t>
   </si>
   <si>
-    <t>5.7</t>
-  </si>
-  <si>
     <t>Technische Spezifikation (Unterstutzte Geräte, Daten funktion)</t>
   </si>
   <si>
-    <t>Systemmodellierung (uml diagramm)</t>
-  </si>
-  <si>
     <t>Firmenbeschrieb</t>
+  </si>
+  <si>
+    <t>Benutzer Rolle Definieren</t>
+  </si>
+  <si>
+    <t>Soll Situation genauere definieren</t>
+  </si>
+  <si>
+    <t>Ist Situationen genauer definieren</t>
+  </si>
+  <si>
+    <t>Texturen Verzeichnis</t>
   </si>
 </sst>
 </file>
@@ -959,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1123,6 +1117,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1141,24 +1153,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1473,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E724F4-8276-4FB5-885D-8ADC5A3409FB}">
-  <dimension ref="A1:AM90"/>
+  <dimension ref="A1:AM89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,115 +1562,115 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="103"/>
-      <c r="AL9" s="103"/>
-      <c r="AM9" s="103"/>
+      <c r="D9" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="98"/>
+      <c r="AL9" s="98"/>
+      <c r="AM9" s="98"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95" t="s">
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="94"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="98" t="s">
+      <c r="N10" s="94"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="98" t="s">
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="98" t="s">
+      <c r="T10" s="94"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="99"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="98" t="s">
+      <c r="W10" s="94"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="98" t="s">
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="T10" s="99"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="98" t="s">
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="W10" s="99"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="98" t="s">
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="96"/>
+      <c r="AH10" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="98" t="s">
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="96"/>
+      <c r="AK10" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="98" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="101"/>
-      <c r="AH10" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI10" s="99"/>
-      <c r="AJ10" s="101"/>
-      <c r="AK10" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="101"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="96"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
@@ -1683,112 +1681,112 @@
         <v>10</v>
       </c>
       <c r="D11" s="88" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F11" s="90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G11" s="89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H11" s="89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I11" s="90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J11" s="89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K11" s="89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L11" s="90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M11" s="89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N11" s="89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O11" s="90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P11" s="89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="R11" s="90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S11" s="89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="T11" s="89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="U11" s="90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="V11" s="89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W11" s="89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="X11" s="90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Y11" s="89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z11" s="89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AA11" s="90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AB11" s="89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC11" s="89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AD11" s="90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AE11" s="89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF11" s="89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AG11" s="90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AH11" s="89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI11" s="89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AJ11" s="90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AK11" s="89" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AL11" s="89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AM11" s="90" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1846,7 +1844,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="49">
         <v>0.2</v>
@@ -1993,7 +1991,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D16" s="24">
         <v>0.1</v>
@@ -2009,15 +2007,29 @@
       <c r="I16" s="52">
         <v>0.1</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="24">
+        <v>0.1</v>
+      </c>
       <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="24"/>
+      <c r="L16" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0.1</v>
+      </c>
       <c r="N16" s="22"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
+      <c r="O16" s="52">
+        <v>0</v>
+      </c>
+      <c r="P16" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="Q16" s="92">
+        <v>0.1</v>
+      </c>
+      <c r="R16" s="52">
+        <v>0</v>
+      </c>
       <c r="S16" s="24"/>
       <c r="T16" s="22"/>
       <c r="U16" s="23"/>
@@ -2099,7 +2111,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -2347,7 +2359,7 @@
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C23" s="77" t="s">
         <v>59</v>
@@ -2395,10 +2407,10 @@
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -2443,10 +2455,10 @@
     <row r="25" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="58" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" s="78" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
@@ -2550,7 +2562,9 @@
       <c r="M27" s="25">
         <v>2.9</v>
       </c>
-      <c r="N27" s="26"/>
+      <c r="N27" s="92">
+        <v>1</v>
+      </c>
       <c r="O27" s="27"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="26"/>
@@ -2583,7 +2597,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -2597,7 +2611,9 @@
       <c r="M28" s="25">
         <v>1</v>
       </c>
-      <c r="N28" s="26"/>
+      <c r="N28" s="92">
+        <v>0.5</v>
+      </c>
       <c r="O28" s="27"/>
       <c r="P28" s="25"/>
       <c r="Q28" s="26"/>
@@ -2630,7 +2646,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -2822,7 +2838,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="77" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -2871,7 +2887,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -2917,10 +2933,10 @@
     <row r="35" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="44"/>
@@ -2965,7 +2981,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
@@ -3008,8 +3024,8 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="29" t="s">
-        <v>102</v>
+      <c r="B37" s="31" t="s">
+        <v>99</v>
       </c>
       <c r="C37" s="76" t="s">
         <v>152</v>
@@ -3056,11 +3072,11 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="29" t="s">
-        <v>103</v>
+      <c r="B38" s="104" t="s">
+        <v>100</v>
       </c>
       <c r="C38" s="76" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -3071,10 +3087,11 @@
       <c r="J38" s="25"/>
       <c r="K38" s="26"/>
       <c r="L38" s="27"/>
-      <c r="N38" s="26"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="68"/>
       <c r="O38" s="27"/>
-      <c r="P38" s="25">
-        <v>2</v>
+      <c r="P38">
+        <v>1</v>
       </c>
       <c r="Q38" s="26"/>
       <c r="R38" s="27"/>
@@ -3102,11 +3119,11 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="29" t="s">
-        <v>104</v>
+      <c r="B39" s="31" t="s">
+        <v>101</v>
       </c>
       <c r="C39" s="76" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -3123,7 +3140,9 @@
       <c r="P39" s="25">
         <v>0.5</v>
       </c>
-      <c r="Q39" s="26"/>
+      <c r="Q39" s="92">
+        <v>0.2</v>
+      </c>
       <c r="R39" s="27"/>
       <c r="S39" s="25"/>
       <c r="T39" s="26"/>
@@ -3148,11 +3167,11 @@
       <c r="AM39" s="27"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B40" s="29" t="s">
-        <v>105</v>
+      <c r="B40" s="31" t="s">
+        <v>102</v>
       </c>
       <c r="C40" s="76" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -3169,7 +3188,9 @@
       <c r="P40" s="25">
         <v>1</v>
       </c>
-      <c r="Q40" s="26"/>
+      <c r="Q40" s="92">
+        <v>0.1</v>
+      </c>
       <c r="R40" s="27"/>
       <c r="S40" s="25"/>
       <c r="T40" s="26"/>
@@ -3195,11 +3216,11 @@
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="29" t="s">
-        <v>106</v>
+      <c r="B41" s="104" t="s">
+        <v>103</v>
       </c>
       <c r="C41" s="76" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -3214,7 +3235,7 @@
       <c r="N41" s="26"/>
       <c r="O41" s="27"/>
       <c r="P41" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="26"/>
       <c r="R41" s="27"/>
@@ -3240,150 +3261,150 @@
       <c r="AL41" s="26"/>
       <c r="AM41" s="27"/>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="27"/>
-      <c r="AK42" s="25"/>
-      <c r="AL42" s="26"/>
-      <c r="AM42" s="27"/>
-    </row>
-    <row r="43" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="55"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="55"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="55"/>
-      <c r="AE43" s="54"/>
-      <c r="AF43" s="53"/>
-      <c r="AG43" s="55"/>
-      <c r="AH43" s="54"/>
-      <c r="AI43" s="53"/>
-      <c r="AJ43" s="55"/>
-      <c r="AK43" s="54"/>
-      <c r="AL43" s="53"/>
-      <c r="AM43" s="55"/>
+    <row r="42" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="55"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="55"/>
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="55"/>
+      <c r="AH42" s="54"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="55"/>
+      <c r="AK42" s="54"/>
+      <c r="AL42" s="53"/>
+      <c r="AM42" s="55"/>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="47"/>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28"/>
+      <c r="AG43" s="47"/>
+      <c r="AH43" s="28"/>
+      <c r="AI43" s="28"/>
+      <c r="AJ43" s="47"/>
+      <c r="AK43" s="28"/>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="47"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="B44" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="47"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="47"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="47"/>
-      <c r="AH44" s="28"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="47"/>
-      <c r="AK44" s="28"/>
-      <c r="AL44" s="28"/>
-      <c r="AM44" s="47"/>
+      <c r="B44" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="25">
+        <v>1</v>
+      </c>
+      <c r="T44" s="26"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="27"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="27"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="27"/>
+      <c r="AK44" s="25"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="27"/>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45" s="77" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -3401,7 +3422,7 @@
       <c r="Q45" s="26"/>
       <c r="R45" s="27"/>
       <c r="S45" s="25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T45" s="26"/>
       <c r="U45" s="27"/>
@@ -3427,10 +3448,10 @@
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="77" t="s">
-        <v>81</v>
+        <v>35</v>
+      </c>
+      <c r="C46" s="81" t="s">
+        <v>74</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -3448,7 +3469,7 @@
       <c r="Q46" s="26"/>
       <c r="R46" s="27"/>
       <c r="S46" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T46" s="26"/>
       <c r="U46" s="27"/>
@@ -3474,10 +3495,10 @@
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="81" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="C47" s="77" t="s">
+        <v>75</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
@@ -3495,7 +3516,7 @@
       <c r="Q47" s="26"/>
       <c r="R47" s="27"/>
       <c r="S47" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T47" s="26"/>
       <c r="U47" s="27"/>
@@ -3521,10 +3542,10 @@
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48" s="77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
@@ -3542,7 +3563,7 @@
       <c r="Q48" s="26"/>
       <c r="R48" s="27"/>
       <c r="S48" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" s="26"/>
       <c r="U48" s="27"/>
@@ -3568,10 +3589,10 @@
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" s="77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
@@ -3588,12 +3609,12 @@
       <c r="P49" s="25"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="27"/>
-      <c r="S49" s="25">
-        <v>1</v>
-      </c>
+      <c r="S49" s="25"/>
       <c r="T49" s="26"/>
       <c r="U49" s="27"/>
-      <c r="V49" s="25"/>
+      <c r="V49" s="25">
+        <v>1</v>
+      </c>
       <c r="W49" s="26"/>
       <c r="X49" s="27"/>
       <c r="Y49" s="25"/>
@@ -3615,9 +3636,9 @@
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="81" t="s">
         <v>80</v>
       </c>
       <c r="D50" s="25"/>
@@ -3639,7 +3660,7 @@
       <c r="T50" s="26"/>
       <c r="U50" s="27"/>
       <c r="V50" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W50" s="26"/>
       <c r="X50" s="27"/>
@@ -3659,13 +3680,13 @@
       <c r="AL50" s="26"/>
       <c r="AM50" s="27"/>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="81" t="s">
-        <v>83</v>
+        <v>106</v>
+      </c>
+      <c r="C51" s="77" t="s">
+        <v>81</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -3686,7 +3707,7 @@
       <c r="T51" s="26"/>
       <c r="U51" s="27"/>
       <c r="V51" s="25">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="W51" s="26"/>
       <c r="X51" s="27"/>
@@ -3706,105 +3727,105 @@
       <c r="AL51" s="26"/>
       <c r="AM51" s="27"/>
     </row>
-    <row r="52" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" s="46" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="W52" s="26"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="26"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="26"/>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="25"/>
-      <c r="AF52" s="26"/>
-      <c r="AG52" s="27"/>
-      <c r="AH52" s="25"/>
-      <c r="AI52" s="26"/>
-      <c r="AJ52" s="27"/>
-      <c r="AK52" s="25"/>
-      <c r="AL52" s="26"/>
-      <c r="AM52" s="27"/>
-    </row>
-    <row r="53" spans="1:39" s="46" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="45"/>
+      <c r="AB52" s="44"/>
+      <c r="AC52" s="43"/>
+      <c r="AD52" s="45"/>
+      <c r="AE52" s="44"/>
+      <c r="AF52" s="43"/>
+      <c r="AG52" s="45"/>
+      <c r="AH52" s="44"/>
+      <c r="AI52" s="43"/>
+      <c r="AJ52" s="45"/>
+      <c r="AK52" s="44"/>
+      <c r="AL52" s="43"/>
+      <c r="AM52" s="45"/>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
-      <c r="B53" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="45"/>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="43"/>
-      <c r="AA53" s="45"/>
-      <c r="AB53" s="44"/>
-      <c r="AC53" s="43"/>
-      <c r="AD53" s="45"/>
-      <c r="AE53" s="44"/>
-      <c r="AF53" s="43"/>
-      <c r="AG53" s="45"/>
-      <c r="AH53" s="44"/>
-      <c r="AI53" s="43"/>
-      <c r="AJ53" s="45"/>
-      <c r="AK53" s="44"/>
-      <c r="AL53" s="43"/>
-      <c r="AM53" s="45"/>
+      <c r="B53" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="25">
+        <v>2</v>
+      </c>
+      <c r="W53" s="26"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="26"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="26"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="25"/>
+      <c r="AF53" s="26"/>
+      <c r="AG53" s="27"/>
+      <c r="AH53" s="25"/>
+      <c r="AI53" s="26"/>
+      <c r="AJ53" s="27"/>
+      <c r="AK53" s="25"/>
+      <c r="AL53" s="26"/>
+      <c r="AM53" s="27"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C54" s="77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -3825,11 +3846,13 @@
       <c r="T54" s="26"/>
       <c r="U54" s="27"/>
       <c r="V54" s="25">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="W54" s="26"/>
       <c r="X54" s="27"/>
-      <c r="Y54" s="25"/>
+      <c r="Y54" s="25">
+        <v>1</v>
+      </c>
       <c r="Z54" s="26"/>
       <c r="AA54" s="27"/>
       <c r="AB54" s="25"/>
@@ -3848,10 +3871,10 @@
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
@@ -3871,13 +3894,11 @@
       <c r="S55" s="25"/>
       <c r="T55" s="26"/>
       <c r="U55" s="27"/>
-      <c r="V55" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="V55" s="25"/>
       <c r="W55" s="26"/>
       <c r="X55" s="27"/>
       <c r="Y55" s="25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z55" s="26"/>
       <c r="AA55" s="27"/>
@@ -3895,12 +3916,11 @@
       <c r="AM55" s="27"/>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
       <c r="B56" s="29" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="25"/>
@@ -3924,7 +3944,7 @@
       <c r="W56" s="26"/>
       <c r="X56" s="27"/>
       <c r="Y56" s="25">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Z56" s="26"/>
       <c r="AA56" s="27"/>
@@ -3941,104 +3961,107 @@
       <c r="AL56" s="26"/>
       <c r="AM56" s="27"/>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B57" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="26"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="25">
-        <v>2</v>
-      </c>
-      <c r="Z57" s="26"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="25"/>
-      <c r="AC57" s="26"/>
-      <c r="AD57" s="27"/>
-      <c r="AE57" s="25"/>
-      <c r="AF57" s="26"/>
-      <c r="AG57" s="27"/>
-      <c r="AH57" s="25"/>
-      <c r="AI57" s="26"/>
-      <c r="AJ57" s="27"/>
-      <c r="AK57" s="25"/>
-      <c r="AL57" s="26"/>
-      <c r="AM57" s="27"/>
-    </row>
-    <row r="58" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58"/>
-      <c r="B58" s="42" t="s">
+    <row r="57" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="45"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="43"/>
+      <c r="AA57" s="45"/>
+      <c r="AB57" s="44"/>
+      <c r="AC57" s="43"/>
+      <c r="AD57" s="45"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="43"/>
+      <c r="AG57" s="45"/>
+      <c r="AH57" s="44"/>
+      <c r="AI57" s="43"/>
+      <c r="AJ57" s="45"/>
+      <c r="AK57" s="44"/>
+      <c r="AL57" s="43"/>
+      <c r="AM57" s="45"/>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="43"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="44"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="45"/>
-      <c r="V58" s="44"/>
-      <c r="W58" s="43"/>
-      <c r="X58" s="45"/>
-      <c r="Y58" s="44"/>
-      <c r="Z58" s="43"/>
-      <c r="AA58" s="45"/>
-      <c r="AB58" s="44"/>
-      <c r="AC58" s="43"/>
-      <c r="AD58" s="45"/>
-      <c r="AE58" s="44"/>
-      <c r="AF58" s="43"/>
-      <c r="AG58" s="45"/>
-      <c r="AH58" s="44"/>
-      <c r="AI58" s="43"/>
-      <c r="AJ58" s="45"/>
-      <c r="AK58" s="44"/>
-      <c r="AL58" s="43"/>
-      <c r="AM58" s="45"/>
+      <c r="C58" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="26"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Z58" s="26"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="26"/>
+      <c r="AD58" s="27"/>
+      <c r="AE58" s="25"/>
+      <c r="AF58" s="26"/>
+      <c r="AG58" s="27"/>
+      <c r="AH58" s="25"/>
+      <c r="AI58" s="26"/>
+      <c r="AJ58" s="27"/>
+      <c r="AK58" s="25"/>
+      <c r="AL58" s="26"/>
+      <c r="AM58" s="27"/>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="81" t="s">
-        <v>108</v>
+      <c r="C59" s="77" t="s">
+        <v>107</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
@@ -4061,13 +4084,11 @@
       <c r="V59" s="25"/>
       <c r="W59" s="26"/>
       <c r="X59" s="27"/>
-      <c r="Y59" s="25">
-        <v>0.2</v>
-      </c>
+      <c r="Y59" s="25"/>
       <c r="Z59" s="26"/>
       <c r="AA59" s="27"/>
       <c r="AB59" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC59" s="26"/>
       <c r="AD59" s="27"/>
@@ -4081,150 +4102,149 @@
       <c r="AL59" s="26"/>
       <c r="AM59" s="27"/>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
-      <c r="B60" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="25"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="25"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="25">
-        <v>3</v>
-      </c>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="27"/>
-      <c r="AE60" s="25"/>
-      <c r="AF60" s="26"/>
-      <c r="AG60" s="27"/>
-      <c r="AH60" s="25"/>
-      <c r="AI60" s="26"/>
-      <c r="AJ60" s="27"/>
-      <c r="AK60" s="25"/>
-      <c r="AL60" s="26"/>
-      <c r="AM60" s="27"/>
-    </row>
-    <row r="61" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="61"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="59"/>
+      <c r="U60" s="61"/>
+      <c r="V60" s="60"/>
+      <c r="W60" s="59"/>
+      <c r="X60" s="61"/>
+      <c r="Y60" s="60"/>
+      <c r="Z60" s="59"/>
+      <c r="AA60" s="61"/>
+      <c r="AB60" s="60"/>
+      <c r="AC60" s="59"/>
+      <c r="AD60" s="61"/>
+      <c r="AE60" s="60"/>
+      <c r="AF60" s="59"/>
+      <c r="AG60" s="61"/>
+      <c r="AH60" s="60"/>
+      <c r="AI60" s="59"/>
+      <c r="AJ60" s="61"/>
+      <c r="AK60" s="60"/>
+      <c r="AL60" s="59"/>
+      <c r="AM60" s="61"/>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
-      <c r="B61" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="61"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="59"/>
-      <c r="U61" s="61"/>
-      <c r="V61" s="60"/>
-      <c r="W61" s="59"/>
-      <c r="X61" s="61"/>
-      <c r="Y61" s="60"/>
-      <c r="Z61" s="59"/>
-      <c r="AA61" s="61"/>
-      <c r="AB61" s="60"/>
-      <c r="AC61" s="59"/>
-      <c r="AD61" s="61"/>
-      <c r="AE61" s="60"/>
-      <c r="AF61" s="59"/>
-      <c r="AG61" s="61"/>
-      <c r="AH61" s="60"/>
-      <c r="AI61" s="59"/>
-      <c r="AJ61" s="61"/>
-      <c r="AK61" s="60"/>
-      <c r="AL61" s="59"/>
-      <c r="AM61" s="61"/>
+      <c r="B61" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="47"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="47"/>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="28"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="37"/>
+      <c r="AC61" s="28"/>
+      <c r="AD61" s="47"/>
+      <c r="AE61" s="37"/>
+      <c r="AF61" s="28"/>
+      <c r="AG61" s="47"/>
+      <c r="AH61" s="37"/>
+      <c r="AI61" s="28"/>
+      <c r="AJ61" s="47"/>
+      <c r="AK61" s="37"/>
+      <c r="AL61" s="28"/>
+      <c r="AM61" s="47"/>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
-      <c r="B62" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="47"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="47"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="47"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="28"/>
-      <c r="X62" s="47"/>
-      <c r="Y62" s="37"/>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="47"/>
-      <c r="AB62" s="37"/>
-      <c r="AC62" s="28"/>
-      <c r="AD62" s="47"/>
-      <c r="AE62" s="37"/>
-      <c r="AF62" s="28"/>
-      <c r="AG62" s="47"/>
-      <c r="AH62" s="37"/>
-      <c r="AI62" s="28"/>
-      <c r="AJ62" s="47"/>
-      <c r="AK62" s="37"/>
-      <c r="AL62" s="28"/>
-      <c r="AM62" s="47"/>
+      <c r="B62" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="26"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="25"/>
+      <c r="Z62" s="26"/>
+      <c r="AA62" s="27"/>
+      <c r="AC62" s="26"/>
+      <c r="AD62" s="27"/>
+      <c r="AE62" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AF62" s="26"/>
+      <c r="AG62" s="27"/>
+      <c r="AH62" s="25"/>
+      <c r="AI62" s="26"/>
+      <c r="AJ62" s="27"/>
+      <c r="AK62" s="25"/>
+      <c r="AL62" s="26"/>
+      <c r="AM62" s="27"/>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C63" s="76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
@@ -4253,7 +4273,7 @@
       <c r="AC63" s="26"/>
       <c r="AD63" s="27"/>
       <c r="AE63" s="25">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AF63" s="26"/>
       <c r="AG63" s="27"/>
@@ -4267,10 +4287,10 @@
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C64" s="76" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
@@ -4299,7 +4319,7 @@
       <c r="AC64" s="26"/>
       <c r="AD64" s="27"/>
       <c r="AE64" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF64" s="26"/>
       <c r="AG64" s="27"/>
@@ -4310,326 +4330,325 @@
       <c r="AL64" s="26"/>
       <c r="AM64" s="27"/>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="B65" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="26"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="25"/>
-      <c r="W65" s="26"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="25"/>
-      <c r="Z65" s="26"/>
-      <c r="AA65" s="27"/>
-      <c r="AC65" s="26"/>
-      <c r="AD65" s="27"/>
-      <c r="AE65" s="25">
+      <c r="B65" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="60"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="60"/>
+      <c r="T65" s="59"/>
+      <c r="U65" s="61"/>
+      <c r="V65" s="60"/>
+      <c r="W65" s="59"/>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="60"/>
+      <c r="Z65" s="59"/>
+      <c r="AA65" s="61"/>
+      <c r="AB65" s="60"/>
+      <c r="AC65" s="59"/>
+      <c r="AD65" s="61"/>
+      <c r="AE65" s="60"/>
+      <c r="AF65" s="59"/>
+      <c r="AG65" s="61"/>
+      <c r="AH65" s="60"/>
+      <c r="AI65" s="59"/>
+      <c r="AJ65" s="61"/>
+      <c r="AK65" s="60"/>
+      <c r="AL65" s="59"/>
+      <c r="AM65" s="61"/>
+    </row>
+    <row r="66" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="66"/>
+      <c r="M66" s="65"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="66"/>
+      <c r="P66" s="65"/>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="66"/>
+      <c r="S66" s="65"/>
+      <c r="T66" s="64"/>
+      <c r="U66" s="66"/>
+      <c r="V66" s="65"/>
+      <c r="W66" s="64"/>
+      <c r="X66" s="66"/>
+      <c r="Y66" s="65"/>
+      <c r="Z66" s="64"/>
+      <c r="AA66" s="66"/>
+      <c r="AB66" s="65"/>
+      <c r="AC66" s="64"/>
+      <c r="AD66" s="66"/>
+      <c r="AE66" s="65"/>
+      <c r="AF66" s="64"/>
+      <c r="AG66" s="66"/>
+      <c r="AH66" s="65"/>
+      <c r="AI66" s="64"/>
+      <c r="AJ66" s="66"/>
+      <c r="AK66" s="65"/>
+      <c r="AL66" s="64"/>
+      <c r="AM66" s="66"/>
+    </row>
+    <row r="67" spans="1:39" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="68"/>
+      <c r="O67" s="70"/>
+      <c r="P67" s="69"/>
+      <c r="Q67" s="68"/>
+      <c r="R67" s="70"/>
+      <c r="S67" s="69"/>
+      <c r="T67" s="68"/>
+      <c r="U67" s="70"/>
+      <c r="V67" s="69"/>
+      <c r="W67" s="68"/>
+      <c r="X67" s="70"/>
+      <c r="Y67" s="69"/>
+      <c r="Z67" s="68"/>
+      <c r="AA67" s="70"/>
+      <c r="AE67" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="AF67" s="68"/>
+      <c r="AG67" s="70"/>
+      <c r="AH67" s="69">
         <v>1</v>
       </c>
-      <c r="AF65" s="26"/>
-      <c r="AG65" s="27"/>
-      <c r="AH65" s="25"/>
-      <c r="AI65" s="26"/>
-      <c r="AJ65" s="27"/>
-      <c r="AK65" s="25"/>
-      <c r="AL65" s="26"/>
-      <c r="AM65" s="27"/>
-    </row>
-    <row r="66" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="78" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="60"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="61"/>
-      <c r="S66" s="60"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="61"/>
-      <c r="V66" s="60"/>
-      <c r="W66" s="59"/>
-      <c r="X66" s="61"/>
-      <c r="Y66" s="60"/>
-      <c r="Z66" s="59"/>
-      <c r="AA66" s="61"/>
-      <c r="AB66" s="60"/>
-      <c r="AC66" s="59"/>
-      <c r="AD66" s="61"/>
-      <c r="AE66" s="60"/>
-      <c r="AF66" s="59"/>
-      <c r="AG66" s="61"/>
-      <c r="AH66" s="60"/>
-      <c r="AI66" s="59"/>
-      <c r="AJ66" s="61"/>
-      <c r="AK66" s="60"/>
-      <c r="AL66" s="59"/>
-      <c r="AM66" s="61"/>
-    </row>
-    <row r="67" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="64"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="65"/>
-      <c r="N67" s="64"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="65"/>
-      <c r="Q67" s="64"/>
-      <c r="R67" s="66"/>
-      <c r="S67" s="65"/>
-      <c r="T67" s="64"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="65"/>
-      <c r="W67" s="64"/>
-      <c r="X67" s="66"/>
-      <c r="Y67" s="65"/>
-      <c r="Z67" s="64"/>
-      <c r="AA67" s="66"/>
-      <c r="AB67" s="65"/>
-      <c r="AC67" s="64"/>
-      <c r="AD67" s="66"/>
-      <c r="AE67" s="65"/>
-      <c r="AF67" s="64"/>
-      <c r="AG67" s="66"/>
-      <c r="AH67" s="65"/>
-      <c r="AI67" s="64"/>
-      <c r="AJ67" s="66"/>
-      <c r="AK67" s="65"/>
-      <c r="AL67" s="64"/>
-      <c r="AM67" s="66"/>
-    </row>
-    <row r="68" spans="1:39" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI67" s="68"/>
+      <c r="AJ67" s="70"/>
+      <c r="AK67" s="69"/>
+      <c r="AL67" s="68"/>
+      <c r="AM67" s="70"/>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C68" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="70"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="68"/>
-      <c r="O68" s="70"/>
-      <c r="P68" s="69"/>
-      <c r="Q68" s="68"/>
-      <c r="R68" s="70"/>
-      <c r="S68" s="69"/>
-      <c r="T68" s="68"/>
-      <c r="U68" s="70"/>
-      <c r="V68" s="69"/>
-      <c r="W68" s="68"/>
-      <c r="X68" s="70"/>
-      <c r="Y68" s="69"/>
-      <c r="Z68" s="68"/>
-      <c r="AA68" s="70"/>
-      <c r="AE68" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="AF68" s="68"/>
-      <c r="AG68" s="70"/>
-      <c r="AH68" s="69">
+        <v>132</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="26"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="26"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="25"/>
+      <c r="Z68" s="26"/>
+      <c r="AA68" s="27"/>
+      <c r="AE68" s="25"/>
+      <c r="AF68" s="26"/>
+      <c r="AG68" s="27"/>
+      <c r="AH68" s="25">
         <v>1</v>
       </c>
-      <c r="AI68" s="68"/>
-      <c r="AJ68" s="70"/>
-      <c r="AK68" s="69"/>
-      <c r="AL68" s="68"/>
-      <c r="AM68" s="70"/>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AI68" s="26"/>
+      <c r="AJ68" s="27"/>
+      <c r="AK68" s="25"/>
+      <c r="AL68" s="26"/>
+      <c r="AM68" s="27"/>
+    </row>
+    <row r="69" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
-      <c r="B69" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="27"/>
-      <c r="V69" s="25"/>
-      <c r="W69" s="26"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="25"/>
-      <c r="Z69" s="26"/>
-      <c r="AA69" s="27"/>
-      <c r="AE69" s="25"/>
-      <c r="AF69" s="26"/>
-      <c r="AG69" s="27"/>
-      <c r="AH69" s="25">
-        <v>1</v>
-      </c>
-      <c r="AI69" s="26"/>
-      <c r="AJ69" s="27"/>
-      <c r="AK69" s="25"/>
-      <c r="AL69" s="26"/>
-      <c r="AM69" s="27"/>
-    </row>
-    <row r="70" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="61"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="60"/>
+      <c r="Z69" s="59"/>
+      <c r="AA69" s="61"/>
+      <c r="AB69" s="60"/>
+      <c r="AC69" s="59"/>
+      <c r="AD69" s="61"/>
+      <c r="AE69" s="60"/>
+      <c r="AF69" s="59"/>
+      <c r="AG69" s="61"/>
+      <c r="AH69" s="60"/>
+      <c r="AI69" s="59"/>
+      <c r="AJ69" s="61"/>
+      <c r="AK69" s="60"/>
+      <c r="AL69" s="59"/>
+      <c r="AM69" s="61"/>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
-      <c r="B70" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="60"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="60"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="61"/>
-      <c r="S70" s="60"/>
-      <c r="T70" s="59"/>
-      <c r="U70" s="61"/>
-      <c r="V70" s="60"/>
-      <c r="W70" s="59"/>
-      <c r="X70" s="61"/>
-      <c r="Y70" s="60"/>
-      <c r="Z70" s="59"/>
-      <c r="AA70" s="61"/>
-      <c r="AB70" s="60"/>
-      <c r="AC70" s="59"/>
-      <c r="AD70" s="61"/>
-      <c r="AE70" s="60"/>
-      <c r="AF70" s="59"/>
-      <c r="AG70" s="61"/>
-      <c r="AH70" s="60"/>
-      <c r="AI70" s="59"/>
-      <c r="AJ70" s="61"/>
-      <c r="AK70" s="60"/>
-      <c r="AL70" s="59"/>
-      <c r="AM70" s="61"/>
+      <c r="B70" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="47"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="28"/>
+      <c r="AA70" s="47"/>
+      <c r="AB70" s="37"/>
+      <c r="AC70" s="28"/>
+      <c r="AD70" s="47"/>
+      <c r="AE70" s="37"/>
+      <c r="AF70" s="28"/>
+      <c r="AG70" s="47"/>
+      <c r="AH70" s="37"/>
+      <c r="AI70" s="28"/>
+      <c r="AJ70" s="47"/>
+      <c r="AK70" s="37"/>
+      <c r="AL70" s="28"/>
+      <c r="AM70" s="47"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
-      <c r="B71" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="47"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="28"/>
-      <c r="U71" s="47"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="28"/>
-      <c r="X71" s="47"/>
-      <c r="Y71" s="37"/>
-      <c r="Z71" s="28"/>
-      <c r="AA71" s="47"/>
-      <c r="AB71" s="37"/>
-      <c r="AC71" s="28"/>
-      <c r="AD71" s="47"/>
-      <c r="AE71" s="37"/>
-      <c r="AF71" s="28"/>
-      <c r="AG71" s="47"/>
-      <c r="AH71" s="37"/>
-      <c r="AI71" s="28"/>
-      <c r="AJ71" s="47"/>
-      <c r="AK71" s="37"/>
-      <c r="AL71" s="28"/>
-      <c r="AM71" s="47"/>
+      <c r="B71" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="27"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="26"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="25"/>
+      <c r="Z71" s="26"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="25"/>
+      <c r="AC71" s="26"/>
+      <c r="AD71" s="27"/>
+      <c r="AE71" s="25"/>
+      <c r="AF71" s="26"/>
+      <c r="AG71" s="27"/>
+      <c r="AH71" s="25"/>
+      <c r="AI71" s="26"/>
+      <c r="AJ71" s="27"/>
+      <c r="AK71" s="25"/>
+      <c r="AL71" s="26"/>
+      <c r="AM71" s="27"/>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C72" s="77" t="s">
         <v>13</v>
@@ -4674,7 +4693,7 @@
     <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C73" s="77" t="s">
         <v>13</v>
@@ -4719,7 +4738,7 @@
     <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C74" s="77" t="s">
         <v>13</v>
@@ -4764,7 +4783,7 @@
     <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C75" s="77" t="s">
         <v>13</v>
@@ -4808,137 +4827,97 @@
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
-      <c r="B76" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="27"/>
-      <c r="S76" s="25"/>
-      <c r="T76" s="26"/>
-      <c r="U76" s="27"/>
-      <c r="V76" s="25"/>
-      <c r="W76" s="26"/>
-      <c r="X76" s="27"/>
-      <c r="Y76" s="25"/>
-      <c r="Z76" s="26"/>
-      <c r="AA76" s="27"/>
-      <c r="AB76" s="25"/>
-      <c r="AC76" s="26"/>
-      <c r="AD76" s="27"/>
-      <c r="AE76" s="25"/>
-      <c r="AF76" s="26"/>
-      <c r="AG76" s="27"/>
-      <c r="AH76" s="25"/>
-      <c r="AI76" s="26"/>
-      <c r="AJ76" s="27"/>
-      <c r="AK76" s="25"/>
-      <c r="AL76" s="26"/>
-      <c r="AM76" s="27"/>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="2"/>
       <c r="C77" s="14"/>
     </row>
-    <row r="78" spans="1:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="14"/>
+      <c r="B78" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="79" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
-      <c r="B79" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
-      <c r="B80" s="5"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="6"/>
       <c r="C81" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="6"/>
       <c r="C82" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="20" t="s">
+      <c r="B83" s="7"/>
+      <c r="C83" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="13" t="s">
+    <row r="85" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="39" t="s">
+      <c r="D85" s="39" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="84"/>
+      <c r="B86" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="84"/>
-      <c r="B87" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="40" t="s">
-        <v>50</v>
+      <c r="B87" s="30" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="30" t="s">
-        <v>90</v>
+      <c r="B88" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="11" t="s">
+      <c r="B89" s="11" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
     <mergeCell ref="AB10:AD10"/>
     <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH10:AJ10"/>
@@ -4949,11 +4928,6 @@
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4962,6 +4936,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CCA9B0B81E3CB9409C129017DE6E9DDD" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b4d33a61f6d93acd2f5bb33bcd02c3da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5377820a-2d68-4adb-aaae-bcf0ba6bf8f0" xmlns:ns4="5835faf6-6bc7-44cd-9638-9d00e184b482" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e23a8e84f7c9cb6cabb5016b2cfc6c5" ns3:_="" ns4:_="">
     <xsd:import namespace="5377820a-2d68-4adb-aaae-bcf0ba6bf8f0"/>
@@ -5184,15 +5167,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5200,6 +5174,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662529E2-C398-4237-A004-9E9B5846A970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA18E47-C9B6-4A69-AAAC-F358C569EB24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5214,14 +5196,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662529E2-C398-4237-A004-9E9B5846A970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Dokumentation/Zeitplan_joao_Correia.xlsx
+++ b/Dokumentation/Zeitplan_joao_Correia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00_project\ipa_joao\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\00_project\ipa_joao\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76F23E1-96D6-4335-8698-A810D50530CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA921053-BDC2-4C92-94F1-5DE645CFEB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B89AD676-944C-450D-93C2-5644D63A8514}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B89AD676-944C-450D-93C2-5644D63A8514}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_Toc103062712" localSheetId="0">Tabelle1!$A$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -339,9 +340,6 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>5.3</t>
-  </si>
-  <si>
     <t>5.4</t>
   </si>
   <si>
@@ -505,6 +503,9 @@
   </si>
   <si>
     <t>Texturen Verzeichnis</t>
+  </si>
+  <si>
+    <t>8.3</t>
   </si>
 </sst>
 </file>
@@ -953,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1117,6 +1118,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,28 +1155,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1473,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E724F4-8276-4FB5-885D-8ADC5A3409FB}">
   <dimension ref="A1:AM89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF64" sqref="AF64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,115 +1563,115 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="98"/>
-      <c r="AM9" s="98"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="104"/>
+      <c r="AG9" s="104"/>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="104"/>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="104"/>
+      <c r="AM9" s="104"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="93" t="s">
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="93" t="s">
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="93" t="s">
+      <c r="N10" s="100"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="N10" s="94"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="93" t="s">
+      <c r="Q10" s="100"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="93" t="s">
+      <c r="T10" s="100"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="T10" s="94"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="93" t="s">
+      <c r="W10" s="100"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="W10" s="94"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="93" t="s">
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="93" t="s">
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="93" t="s">
+      <c r="AF10" s="100"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="93" t="s">
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL10" s="94"/>
-      <c r="AM10" s="96"/>
+      <c r="AL10" s="100"/>
+      <c r="AM10" s="102"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
@@ -2407,10 +2408,10 @@
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -2455,10 +2456,10 @@
     <row r="25" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="78" t="s">
         <v>125</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>126</v>
       </c>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
@@ -2597,7 +2598,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -2838,7 +2839,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -2887,7 +2888,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -2977,11 +2978,11 @@
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
@@ -2998,11 +2999,19 @@
       <c r="P36" s="25">
         <v>2</v>
       </c>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="25"/>
+      <c r="Q36" s="92">
+        <v>1</v>
+      </c>
+      <c r="R36" s="52">
+        <v>1</v>
+      </c>
+      <c r="S36" s="25">
+        <v>1</v>
+      </c>
       <c r="T36" s="26"/>
-      <c r="U36" s="27"/>
+      <c r="U36" s="52">
+        <v>1</v>
+      </c>
       <c r="V36" s="25"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27"/>
@@ -3028,7 +3037,7 @@
         <v>99</v>
       </c>
       <c r="C37" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -3072,11 +3081,11 @@
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="31" t="s">
         <v>100</v>
       </c>
       <c r="C38" s="76" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -3087,13 +3096,15 @@
       <c r="J38" s="25"/>
       <c r="K38" s="26"/>
       <c r="L38" s="27"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="68"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26"/>
       <c r="O38" s="27"/>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="26"/>
+      <c r="P38" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Q38" s="92">
+        <v>0.2</v>
+      </c>
       <c r="R38" s="27"/>
       <c r="S38" s="25"/>
       <c r="T38" s="26"/>
@@ -3118,7 +3129,6 @@
       <c r="AM38" s="27"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
       <c r="B39" s="31" t="s">
         <v>101</v>
       </c>
@@ -3138,10 +3148,10 @@
       <c r="N39" s="26"/>
       <c r="O39" s="27"/>
       <c r="P39" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="92">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R39" s="27"/>
       <c r="S39" s="25"/>
@@ -3167,11 +3177,12 @@
       <c r="AM39" s="27"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
       <c r="B40" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="76" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -3188,13 +3199,17 @@
       <c r="P40" s="25">
         <v>1</v>
       </c>
-      <c r="Q40" s="92">
-        <v>0.1</v>
-      </c>
-      <c r="R40" s="27"/>
-      <c r="S40" s="25"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="52">
+        <v>1</v>
+      </c>
+      <c r="S40" s="25">
+        <v>0.5</v>
+      </c>
       <c r="T40" s="26"/>
-      <c r="U40" s="27"/>
+      <c r="U40" s="27">
+        <v>0.5</v>
+      </c>
       <c r="V40" s="25"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27"/>
@@ -3214,150 +3229,150 @@
       <c r="AL40" s="26"/>
       <c r="AM40" s="27"/>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="104" t="s">
+    <row r="41" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="55"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="55"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="55"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="53"/>
+      <c r="AG41" s="55"/>
+      <c r="AH41" s="54"/>
+      <c r="AI41" s="53"/>
+      <c r="AJ41" s="55"/>
+      <c r="AK41" s="54"/>
+      <c r="AL41" s="53"/>
+      <c r="AM41" s="55"/>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="25"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="27"/>
-      <c r="AK41" s="25"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="27"/>
-    </row>
-    <row r="42" spans="1:39" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="54"/>
-      <c r="AF42" s="53"/>
-      <c r="AG42" s="55"/>
-      <c r="AH42" s="54"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="54"/>
-      <c r="AL42" s="53"/>
-      <c r="AM42" s="55"/>
+      <c r="C42" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="47"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="47"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="47"/>
+      <c r="AK42" s="28"/>
+      <c r="AL42" s="28"/>
+      <c r="AM42" s="47"/>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="B43" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="47"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="47"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="47"/>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="47"/>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="28"/>
-      <c r="AJ43" s="47"/>
-      <c r="AK43" s="28"/>
-      <c r="AL43" s="28"/>
-      <c r="AM43" s="47"/>
+      <c r="B43" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="106"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="25">
+        <v>1</v>
+      </c>
+      <c r="W43" s="26"/>
+      <c r="X43" s="105"/>
+      <c r="Y43" s="106"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="25"/>
+      <c r="AL43" s="26"/>
+      <c r="AM43" s="27"/>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C44" s="77" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -3373,16 +3388,16 @@
       <c r="O44" s="27"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="26"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="25">
-        <v>1</v>
-      </c>
+      <c r="R44" s="105"/>
+      <c r="S44" s="106"/>
       <c r="T44" s="26"/>
       <c r="U44" s="27"/>
-      <c r="V44" s="25"/>
+      <c r="V44" s="25">
+        <v>0.5</v>
+      </c>
       <c r="W44" s="26"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="25"/>
+      <c r="X44" s="105"/>
+      <c r="Y44" s="106"/>
       <c r="Z44" s="26"/>
       <c r="AA44" s="27"/>
       <c r="AB44" s="25"/>
@@ -3401,10 +3416,10 @@
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="77" t="s">
-        <v>78</v>
+        <v>35</v>
+      </c>
+      <c r="C45" s="81" t="s">
+        <v>74</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="25"/>
@@ -3420,16 +3435,16 @@
       <c r="O45" s="27"/>
       <c r="P45" s="25"/>
       <c r="Q45" s="26"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="R45" s="105"/>
+      <c r="S45" s="106"/>
       <c r="T45" s="26"/>
       <c r="U45" s="27"/>
-      <c r="V45" s="25"/>
+      <c r="V45" s="25">
+        <v>1</v>
+      </c>
       <c r="W45" s="26"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="25"/>
+      <c r="X45" s="105"/>
+      <c r="Y45" s="106"/>
       <c r="Z45" s="26"/>
       <c r="AA45" s="27"/>
       <c r="AB45" s="25"/>
@@ -3448,10 +3463,10 @@
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="C46" s="77" t="s">
+        <v>75</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -3467,16 +3482,16 @@
       <c r="O46" s="27"/>
       <c r="P46" s="25"/>
       <c r="Q46" s="26"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="25">
-        <v>1</v>
-      </c>
+      <c r="R46" s="105"/>
+      <c r="S46" s="106"/>
       <c r="T46" s="26"/>
       <c r="U46" s="27"/>
-      <c r="V46" s="25"/>
+      <c r="V46" s="25">
+        <v>2</v>
+      </c>
       <c r="W46" s="26"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="25"/>
+      <c r="X46" s="105"/>
+      <c r="Y46" s="106"/>
       <c r="Z46" s="26"/>
       <c r="AA46" s="27"/>
       <c r="AB46" s="25"/>
@@ -3495,10 +3510,10 @@
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" s="77" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
@@ -3514,16 +3529,16 @@
       <c r="O47" s="27"/>
       <c r="P47" s="25"/>
       <c r="Q47" s="26"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="25">
-        <v>2</v>
-      </c>
+      <c r="R47" s="105"/>
+      <c r="S47" s="106"/>
       <c r="T47" s="26"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="25"/>
+      <c r="U47" s="105"/>
+      <c r="V47" s="26"/>
       <c r="W47" s="26"/>
       <c r="X47" s="27"/>
-      <c r="Y47" s="25"/>
+      <c r="Y47" s="25">
+        <v>1</v>
+      </c>
       <c r="Z47" s="26"/>
       <c r="AA47" s="27"/>
       <c r="AB47" s="25"/>
@@ -3542,10 +3557,10 @@
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C48" s="77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
@@ -3562,15 +3577,15 @@
       <c r="P48" s="25"/>
       <c r="Q48" s="26"/>
       <c r="R48" s="27"/>
-      <c r="S48" s="25">
-        <v>1</v>
-      </c>
+      <c r="S48" s="25"/>
       <c r="T48" s="26"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="25"/>
+      <c r="U48" s="105"/>
+      <c r="V48" s="106"/>
       <c r="W48" s="26"/>
       <c r="X48" s="27"/>
-      <c r="Y48" s="25"/>
+      <c r="Y48" s="25">
+        <v>1</v>
+      </c>
       <c r="Z48" s="26"/>
       <c r="AA48" s="27"/>
       <c r="AB48" s="25"/>
@@ -3589,10 +3604,10 @@
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="77" t="s">
-        <v>77</v>
+        <v>39</v>
+      </c>
+      <c r="C49" s="81" t="s">
+        <v>80</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
@@ -3611,13 +3626,13 @@
       <c r="R49" s="27"/>
       <c r="S49" s="25"/>
       <c r="T49" s="26"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="25">
-        <v>1</v>
-      </c>
+      <c r="U49" s="105"/>
+      <c r="V49" s="106"/>
       <c r="W49" s="26"/>
       <c r="X49" s="27"/>
-      <c r="Y49" s="25"/>
+      <c r="Y49" s="25">
+        <v>2</v>
+      </c>
       <c r="Z49" s="26"/>
       <c r="AA49" s="27"/>
       <c r="AB49" s="25"/>
@@ -3633,13 +3648,13 @@
       <c r="AL49" s="26"/>
       <c r="AM49" s="27"/>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="81" t="s">
-        <v>80</v>
+        <v>105</v>
+      </c>
+      <c r="C50" s="77" t="s">
+        <v>81</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="25"/>
@@ -3658,13 +3673,13 @@
       <c r="R50" s="27"/>
       <c r="S50" s="25"/>
       <c r="T50" s="26"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="25">
-        <v>2</v>
-      </c>
+      <c r="U50" s="105"/>
+      <c r="V50" s="106"/>
       <c r="W50" s="26"/>
       <c r="X50" s="27"/>
-      <c r="Y50" s="25"/>
+      <c r="Y50" s="25">
+        <v>0.5</v>
+      </c>
       <c r="Z50" s="26"/>
       <c r="AA50" s="27"/>
       <c r="AB50" s="25"/>
@@ -3680,97 +3695,97 @@
       <c r="AL50" s="26"/>
       <c r="AM50" s="27"/>
     </row>
-    <row r="51" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39" s="46" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
-      <c r="B51" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="W51" s="26"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="25"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="27"/>
-      <c r="AH51" s="25"/>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="27"/>
-      <c r="AK51" s="25"/>
-      <c r="AL51" s="26"/>
-      <c r="AM51" s="27"/>
-    </row>
-    <row r="52" spans="1:39" s="46" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="107"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="45"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="45"/>
+      <c r="AB51" s="44"/>
+      <c r="AC51" s="43"/>
+      <c r="AD51" s="45"/>
+      <c r="AE51" s="44"/>
+      <c r="AF51" s="43"/>
+      <c r="AG51" s="45"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="43"/>
+      <c r="AJ51" s="45"/>
+      <c r="AK51" s="44"/>
+      <c r="AL51" s="43"/>
+      <c r="AM51" s="45"/>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="44"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="45"/>
-      <c r="Y52" s="44"/>
-      <c r="Z52" s="43"/>
-      <c r="AA52" s="45"/>
-      <c r="AB52" s="44"/>
-      <c r="AC52" s="43"/>
-      <c r="AD52" s="45"/>
-      <c r="AE52" s="44"/>
-      <c r="AF52" s="43"/>
-      <c r="AG52" s="45"/>
-      <c r="AH52" s="44"/>
-      <c r="AI52" s="43"/>
-      <c r="AJ52" s="45"/>
-      <c r="AK52" s="44"/>
-      <c r="AL52" s="43"/>
-      <c r="AM52" s="45"/>
+      <c r="C52" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="105"/>
+      <c r="V52" s="106"/>
+      <c r="W52" s="26"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="25">
+        <v>2</v>
+      </c>
+      <c r="Z52" s="26"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="26"/>
+      <c r="AD52" s="27"/>
+      <c r="AE52" s="25"/>
+      <c r="AF52" s="26"/>
+      <c r="AG52" s="27"/>
+      <c r="AH52" s="25"/>
+      <c r="AI52" s="26"/>
+      <c r="AJ52" s="27"/>
+      <c r="AK52" s="25"/>
+      <c r="AL52" s="26"/>
+      <c r="AM52" s="27"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -3778,7 +3793,7 @@
         <v>110</v>
       </c>
       <c r="C53" s="77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -3797,13 +3812,13 @@
       <c r="R53" s="27"/>
       <c r="S53" s="25"/>
       <c r="T53" s="26"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="25">
-        <v>2</v>
-      </c>
+      <c r="U53" s="105"/>
+      <c r="V53" s="106"/>
       <c r="W53" s="26"/>
       <c r="X53" s="27"/>
-      <c r="Y53" s="25"/>
+      <c r="Y53" s="25">
+        <v>1.5</v>
+      </c>
       <c r="Z53" s="26"/>
       <c r="AA53" s="27"/>
       <c r="AB53" s="25"/>
@@ -3825,7 +3840,7 @@
         <v>111</v>
       </c>
       <c r="C54" s="77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -3844,14 +3859,12 @@
       <c r="R54" s="27"/>
       <c r="S54" s="25"/>
       <c r="T54" s="26"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="U54" s="105"/>
+      <c r="V54" s="26"/>
       <c r="W54" s="26"/>
       <c r="X54" s="27"/>
       <c r="Y54" s="25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z54" s="26"/>
       <c r="AA54" s="27"/>
@@ -3869,12 +3882,11 @@
       <c r="AM54" s="27"/>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
       <c r="B55" s="29" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C55" s="77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
@@ -3893,12 +3905,12 @@
       <c r="R55" s="27"/>
       <c r="S55" s="25"/>
       <c r="T55" s="26"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="25"/>
+      <c r="U55" s="105"/>
+      <c r="V55" s="26"/>
       <c r="W55" s="26"/>
       <c r="X55" s="27"/>
       <c r="Y55" s="25">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Z55" s="26"/>
       <c r="AA55" s="27"/>
@@ -3915,104 +3927,104 @@
       <c r="AL55" s="26"/>
       <c r="AM55" s="27"/>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B56" s="29" t="s">
+    <row r="56" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="26"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="25">
-        <v>2</v>
-      </c>
-      <c r="Z56" s="26"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="25"/>
-      <c r="AC56" s="26"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="25"/>
-      <c r="AF56" s="26"/>
-      <c r="AG56" s="27"/>
-      <c r="AH56" s="25"/>
-      <c r="AI56" s="26"/>
-      <c r="AJ56" s="27"/>
-      <c r="AK56" s="25"/>
-      <c r="AL56" s="26"/>
-      <c r="AM56" s="27"/>
-    </row>
-    <row r="57" spans="1:39" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="B57" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="44"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="44"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="45"/>
-      <c r="V57" s="44"/>
-      <c r="W57" s="43"/>
-      <c r="X57" s="45"/>
-      <c r="Y57" s="44"/>
-      <c r="Z57" s="43"/>
-      <c r="AA57" s="45"/>
-      <c r="AB57" s="44"/>
-      <c r="AC57" s="43"/>
-      <c r="AD57" s="45"/>
-      <c r="AE57" s="44"/>
-      <c r="AF57" s="43"/>
-      <c r="AG57" s="45"/>
-      <c r="AH57" s="44"/>
-      <c r="AI57" s="43"/>
-      <c r="AJ57" s="45"/>
-      <c r="AK57" s="44"/>
-      <c r="AL57" s="43"/>
-      <c r="AM57" s="45"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="45"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="107"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="45"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="43"/>
+      <c r="AA56" s="45"/>
+      <c r="AB56" s="44"/>
+      <c r="AC56" s="43"/>
+      <c r="AD56" s="45"/>
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="43"/>
+      <c r="AG56" s="45"/>
+      <c r="AH56" s="44"/>
+      <c r="AI56" s="43"/>
+      <c r="AJ56" s="45"/>
+      <c r="AK56" s="44"/>
+      <c r="AL56" s="43"/>
+      <c r="AM56" s="45"/>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="93"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="27"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="26"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Z57" s="26"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="26"/>
+      <c r="AD57" s="27"/>
+      <c r="AE57" s="25"/>
+      <c r="AF57" s="26"/>
+      <c r="AG57" s="27"/>
+      <c r="AH57" s="25"/>
+      <c r="AI57" s="26"/>
+      <c r="AJ57" s="27"/>
+      <c r="AK57" s="25"/>
+      <c r="AL57" s="26"/>
+      <c r="AM57" s="27"/>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C58" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="25"/>
@@ -4058,10 +4070,10 @@
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="29" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C59" s="77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
@@ -4105,10 +4117,10 @@
     <row r="60" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D60" s="60"/>
       <c r="E60" s="60"/>
@@ -4150,7 +4162,7 @@
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="79" t="s">
         <v>29</v>
@@ -4195,7 +4207,7 @@
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="76" t="s">
         <v>91</v>
@@ -4223,7 +4235,8 @@
       <c r="X62" s="27"/>
       <c r="Y62" s="25"/>
       <c r="Z62" s="26"/>
-      <c r="AA62" s="27"/>
+      <c r="AA62" s="105"/>
+      <c r="AB62" s="106"/>
       <c r="AC62" s="26"/>
       <c r="AD62" s="27"/>
       <c r="AE62" s="25">
@@ -4241,7 +4254,7 @@
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="76" t="s">
         <v>92</v>
@@ -4269,7 +4282,8 @@
       <c r="X63" s="27"/>
       <c r="Y63" s="25"/>
       <c r="Z63" s="26"/>
-      <c r="AA63" s="27"/>
+      <c r="AA63" s="105"/>
+      <c r="AB63" s="106"/>
       <c r="AC63" s="26"/>
       <c r="AD63" s="27"/>
       <c r="AE63" s="25">
@@ -4287,10 +4301,10 @@
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="25"/>
@@ -4315,7 +4329,8 @@
       <c r="X64" s="27"/>
       <c r="Y64" s="25"/>
       <c r="Z64" s="26"/>
-      <c r="AA64" s="27"/>
+      <c r="AA64" s="105"/>
+      <c r="AB64" s="106"/>
       <c r="AC64" s="26"/>
       <c r="AD64" s="27"/>
       <c r="AE64" s="25">
@@ -4333,10 +4348,10 @@
     <row r="65" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" s="78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D65" s="60"/>
       <c r="E65" s="60"/>
@@ -4378,10 +4393,10 @@
     <row r="66" spans="1:39" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" s="65"/>
       <c r="E66" s="65"/>
@@ -4423,10 +4438,10 @@
     <row r="67" spans="1:39" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C67" s="76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="69"/>
       <c r="E67" s="69"/>
@@ -4469,10 +4484,10 @@
     <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C68" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
@@ -4513,10 +4528,10 @@
     <row r="69" spans="1:39" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" s="78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D69" s="60"/>
       <c r="E69" s="60"/>
@@ -4913,11 +4928,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
     <mergeCell ref="AB10:AD10"/>
     <mergeCell ref="AE10:AG10"/>
     <mergeCell ref="AH10:AJ10"/>
@@ -4928,6 +4938,11 @@
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="V10:X10"/>
     <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4936,15 +4951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CCA9B0B81E3CB9409C129017DE6E9DDD" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b4d33a61f6d93acd2f5bb33bcd02c3da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5377820a-2d68-4adb-aaae-bcf0ba6bf8f0" xmlns:ns4="5835faf6-6bc7-44cd-9638-9d00e184b482" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e23a8e84f7c9cb6cabb5016b2cfc6c5" ns3:_="" ns4:_="">
     <xsd:import namespace="5377820a-2d68-4adb-aaae-bcf0ba6bf8f0"/>
@@ -5167,6 +5173,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5174,14 +5189,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662529E2-C398-4237-A004-9E9B5846A970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA18E47-C9B6-4A69-AAAC-F358C569EB24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5196,6 +5203,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662529E2-C398-4237-A004-9E9B5846A970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Dokumentation/Zeitplan_joao_Correia.xlsx
+++ b/Dokumentation/Zeitplan_joao_Correia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\00_project\ipa_joao\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA993E3F-C932-4B1A-B6BB-649C71907C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49F2E2C-CDEA-4603-AA19-D84B76FDDE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B89AD676-944C-450D-93C2-5644D63A8514}"/>
+    <workbookView xWindow="7200" yWindow="1200" windowWidth="21600" windowHeight="11505" xr2:uid="{B89AD676-944C-450D-93C2-5644D63A8514}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="154">
   <si>
     <t>Aufgaben- und Terminplanung</t>
   </si>
@@ -264,24 +264,12 @@
     <t>Text boxen erstellen mit Text</t>
   </si>
   <si>
-    <t>Interagtion mit den Knöpfen und Text box</t>
-  </si>
-  <si>
-    <t>Eingeschränkter zufälligkeit von Text aufgaben</t>
-  </si>
-  <si>
     <t>Demo bilder hinzufügen zu objekten</t>
   </si>
   <si>
     <t>Geschichte erstellen des Spieles</t>
   </si>
   <si>
-    <t>Einscanbare hand Funktion</t>
-  </si>
-  <si>
-    <t>Animation mit den Ausgewählten Knöpfen und Hand</t>
-  </si>
-  <si>
     <t>Organisations der Arbeitergebnisse</t>
   </si>
   <si>
@@ -498,16 +486,19 @@
     <t>Ist Situationen genauer definieren</t>
   </si>
   <si>
-    <t>Texturen Verzeichnis</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
     <t>Funktionstüchtige knöpfe hinzufügen</t>
   </si>
   <si>
     <t>Freier Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grafik erstellen und oder Nehmen </t>
+  </si>
+  <si>
+    <t>Integation mit den Knöpfen und Text boxen</t>
+  </si>
+  <si>
+    <t>Animation mit den Ausgewählten Knöpfen und der Hand</t>
   </si>
 </sst>
 </file>
@@ -942,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1096,8 +1087,38 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,37 +1154,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E724F4-8276-4FB5-885D-8ADC5A3409FB}">
-  <dimension ref="A1:AM90"/>
+  <dimension ref="A1:AM88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T80" sqref="T80"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1587,115 +1577,115 @@
     </row>
     <row r="9" spans="1:39" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="94" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="95"/>
-      <c r="AJ9" s="95"/>
-      <c r="AK9" s="95"/>
-      <c r="AL9" s="95"/>
-      <c r="AM9" s="95"/>
+      <c r="D9" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="117"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="117"/>
+      <c r="AF9" s="117"/>
+      <c r="AG9" s="117"/>
+      <c r="AH9" s="117"/>
+      <c r="AI9" s="117"/>
+      <c r="AJ9" s="117"/>
+      <c r="AK9" s="117"/>
+      <c r="AL9" s="117"/>
+      <c r="AM9" s="117"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87" t="s">
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="113"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="113"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="113"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90" t="s">
+      <c r="Q10" s="113"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="90" t="s">
+      <c r="T10" s="113"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="90" t="s">
+      <c r="W10" s="113"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="N10" s="91"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="90" t="s">
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="112" t="s">
         <v>115</v>
       </c>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="90" t="s">
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="T10" s="91"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="90" t="s">
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="W10" s="91"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="90" t="s">
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="115"/>
+      <c r="AK10" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="Z10" s="91"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC10" s="91"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="90" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI10" s="91"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL10" s="91"/>
-      <c r="AM10" s="93"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="115"/>
     </row>
     <row r="11" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
@@ -1706,112 +1696,112 @@
         <v>10</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G11" s="79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H11" s="79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I11" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K11" s="79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L11" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M11" s="79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N11" s="79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O11" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P11" s="79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R11" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="S11" s="79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T11" s="79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="U11" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="V11" s="79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="W11" s="79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="X11" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y11" s="79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Z11" s="79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AB11" s="79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AC11" s="79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AE11" s="79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AF11" s="79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AH11" s="79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AI11" s="79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AK11" s="79" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AL11" s="79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AM11" s="80" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -1844,9 +1834,9 @@
       <c r="S12" s="43"/>
       <c r="T12" s="77"/>
       <c r="U12" s="76"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="98"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="86"/>
       <c r="Y12" s="43"/>
       <c r="Z12" s="77"/>
       <c r="AA12" s="76"/>
@@ -1869,7 +1859,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D13" s="44">
         <v>0.2</v>
@@ -1893,9 +1883,9 @@
       <c r="S13" s="23"/>
       <c r="T13" s="21"/>
       <c r="U13" s="22"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="101"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="89"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="22"/>
@@ -1938,9 +1928,9 @@
       <c r="S14" s="36"/>
       <c r="T14" s="27"/>
       <c r="U14" s="42"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="104"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="92"/>
       <c r="Y14" s="36"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="42"/>
@@ -1991,9 +1981,9 @@
       <c r="S15" s="23"/>
       <c r="T15" s="21"/>
       <c r="U15" s="22"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="101"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="89"/>
       <c r="Y15" s="23"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="22"/>
@@ -2016,7 +2006,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D16" s="23">
         <v>0.1</v>
@@ -2057,9 +2047,9 @@
       <c r="S16" s="23"/>
       <c r="T16" s="21"/>
       <c r="U16" s="22"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="101"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="89"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="21"/>
       <c r="AA16" s="22"/>
@@ -2110,9 +2100,9 @@
       <c r="S17" s="23"/>
       <c r="T17" s="21"/>
       <c r="U17" s="22"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="101"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="89"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="22"/>
@@ -2135,7 +2125,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -2159,9 +2149,9 @@
       <c r="S18" s="23"/>
       <c r="T18" s="21"/>
       <c r="U18" s="22"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="100"/>
-      <c r="X18" s="101"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="89"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="21"/>
       <c r="AA18" s="22"/>
@@ -2212,9 +2202,9 @@
       <c r="S19" s="23"/>
       <c r="T19" s="21"/>
       <c r="U19" s="22"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="100"/>
-      <c r="X19" s="101"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="89"/>
       <c r="Y19" s="23"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="22"/>
@@ -2261,9 +2251,9 @@
       <c r="S20" s="23"/>
       <c r="T20" s="21"/>
       <c r="U20" s="22"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="101"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="89"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="21"/>
       <c r="AA20" s="22"/>
@@ -2310,9 +2300,9 @@
       <c r="S21" s="23"/>
       <c r="T21" s="21"/>
       <c r="U21" s="22"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="101"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="89"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="21"/>
       <c r="AA21" s="22"/>
@@ -2361,9 +2351,9 @@
       <c r="S22" s="23"/>
       <c r="T22" s="21"/>
       <c r="U22" s="22"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="101"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="89"/>
       <c r="Y22" s="23"/>
       <c r="Z22" s="21"/>
       <c r="AA22" s="22"/>
@@ -2383,7 +2373,7 @@
     <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C23" s="68" t="s">
         <v>59</v>
@@ -2409,9 +2399,9 @@
       <c r="S23" s="23"/>
       <c r="T23" s="21"/>
       <c r="U23" s="22"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="101"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="89"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="21"/>
       <c r="AA23" s="22"/>
@@ -2431,10 +2421,10 @@
     <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -2457,9 +2447,9 @@
       <c r="S24" s="23"/>
       <c r="T24" s="21"/>
       <c r="U24" s="22"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="101"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="89"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="22"/>
@@ -2476,13 +2466,13 @@
       <c r="AL24" s="21"/>
       <c r="AM24" s="22"/>
     </row>
-    <row r="25" spans="1:39" s="108" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
@@ -2502,9 +2492,9 @@
       <c r="S25" s="49"/>
       <c r="T25" s="48"/>
       <c r="U25" s="50"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="107"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="95"/>
       <c r="Y25" s="49"/>
       <c r="Z25" s="48"/>
       <c r="AA25" s="50"/>
@@ -2547,9 +2537,9 @@
       <c r="S26" s="36"/>
       <c r="T26" s="27"/>
       <c r="U26" s="42"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="103"/>
-      <c r="X26" s="104"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="91"/>
+      <c r="X26" s="92"/>
       <c r="Y26" s="36"/>
       <c r="Z26" s="27"/>
       <c r="AA26" s="42"/>
@@ -2596,9 +2586,9 @@
       <c r="S27" s="24"/>
       <c r="T27" s="25"/>
       <c r="U27" s="26"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="101"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="89"/>
       <c r="Y27" s="24"/>
       <c r="Z27" s="25"/>
       <c r="AA27" s="26"/>
@@ -2621,7 +2611,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -2645,9 +2635,9 @@
       <c r="S28" s="24"/>
       <c r="T28" s="25"/>
       <c r="U28" s="26"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="101"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="89"/>
       <c r="Y28" s="24"/>
       <c r="Z28" s="25"/>
       <c r="AA28" s="26"/>
@@ -2670,7 +2660,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -2694,9 +2684,9 @@
       <c r="S29" s="24"/>
       <c r="T29" s="25"/>
       <c r="U29" s="26"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="101"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="89"/>
       <c r="Y29" s="24"/>
       <c r="Z29" s="25"/>
       <c r="AA29" s="26"/>
@@ -2743,9 +2733,9 @@
       <c r="S30" s="24"/>
       <c r="T30" s="25"/>
       <c r="U30" s="26"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="100"/>
-      <c r="X30" s="101"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="89"/>
       <c r="Y30" s="24"/>
       <c r="Z30" s="25"/>
       <c r="AA30" s="26"/>
@@ -2792,9 +2782,9 @@
       <c r="S31" s="24"/>
       <c r="T31" s="25"/>
       <c r="U31" s="26"/>
-      <c r="V31" s="99"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="101"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="89"/>
       <c r="Y31" s="24"/>
       <c r="Z31" s="25"/>
       <c r="AA31" s="26"/>
@@ -2811,7 +2801,7 @@
       <c r="AL31" s="25"/>
       <c r="AM31" s="26"/>
     </row>
-    <row r="32" spans="1:39" s="109" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" s="97" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="38" t="s">
         <v>25</v>
@@ -2837,9 +2827,9 @@
       <c r="S32" s="40"/>
       <c r="T32" s="39"/>
       <c r="U32" s="41"/>
-      <c r="V32" s="99"/>
-      <c r="W32" s="100"/>
-      <c r="X32" s="101"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="89"/>
       <c r="Y32" s="40"/>
       <c r="Z32" s="39"/>
       <c r="AA32" s="41"/>
@@ -2862,7 +2852,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -2886,9 +2876,9 @@
       <c r="S33" s="24"/>
       <c r="T33" s="25"/>
       <c r="U33" s="26"/>
-      <c r="V33" s="99"/>
-      <c r="W33" s="100"/>
-      <c r="X33" s="101"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="89"/>
       <c r="Y33" s="24"/>
       <c r="Z33" s="25"/>
       <c r="AA33" s="26"/>
@@ -2911,7 +2901,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -2935,9 +2925,9 @@
       <c r="S34" s="24"/>
       <c r="T34" s="25"/>
       <c r="U34" s="26"/>
-      <c r="V34" s="99"/>
-      <c r="W34" s="100"/>
-      <c r="X34" s="101"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="89"/>
       <c r="Y34" s="24"/>
       <c r="Z34" s="25"/>
       <c r="AA34" s="26"/>
@@ -2954,10 +2944,10 @@
       <c r="AL34" s="25"/>
       <c r="AM34" s="26"/>
     </row>
-    <row r="35" spans="1:39" s="109" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" s="97" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C35" s="71" t="s">
         <v>71</v>
@@ -2980,9 +2970,9 @@
       <c r="S35" s="40"/>
       <c r="T35" s="39"/>
       <c r="U35" s="41"/>
-      <c r="V35" s="99"/>
-      <c r="W35" s="100"/>
-      <c r="X35" s="101"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="89"/>
       <c r="Y35" s="40"/>
       <c r="Z35" s="39"/>
       <c r="AA35" s="41"/>
@@ -3005,7 +2995,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -3035,11 +3025,15 @@
       <c r="U36" s="47">
         <v>1</v>
       </c>
-      <c r="V36" s="99"/>
-      <c r="W36" s="100"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="25"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="82">
+        <v>3</v>
+      </c>
       <c r="AA36" s="26"/>
       <c r="AB36" s="24"/>
       <c r="AC36" s="25"/>
@@ -3057,10 +3051,10 @@
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C37" s="67" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -3083,9 +3077,9 @@
       <c r="S37" s="24"/>
       <c r="T37" s="25"/>
       <c r="U37" s="26"/>
-      <c r="V37" s="99"/>
-      <c r="W37" s="100"/>
-      <c r="X37" s="101"/>
+      <c r="V37" s="87"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="89"/>
       <c r="Y37" s="24"/>
       <c r="Z37" s="25"/>
       <c r="AA37" s="26"/>
@@ -3105,10 +3099,10 @@
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -3132,9 +3126,9 @@
       <c r="S38" s="24"/>
       <c r="T38" s="25"/>
       <c r="U38" s="26"/>
-      <c r="V38" s="99"/>
-      <c r="W38" s="100"/>
-      <c r="X38" s="101"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="88"/>
+      <c r="X38" s="89"/>
       <c r="Y38" s="24"/>
       <c r="Z38" s="25"/>
       <c r="AA38" s="26"/>
@@ -3153,10 +3147,10 @@
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B39" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -3180,9 +3174,9 @@
       <c r="S39" s="24"/>
       <c r="T39" s="25"/>
       <c r="U39" s="26"/>
-      <c r="V39" s="99"/>
-      <c r="W39" s="100"/>
-      <c r="X39" s="101"/>
+      <c r="V39" s="87"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="89"/>
       <c r="Y39" s="24"/>
       <c r="Z39" s="25"/>
       <c r="AA39" s="26"/>
@@ -3202,7 +3196,7 @@
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C40" s="67" t="s">
         <v>72</v>
@@ -3233,9 +3227,9 @@
       <c r="U40" s="47">
         <v>0.5</v>
       </c>
-      <c r="V40" s="99"/>
-      <c r="W40" s="100"/>
-      <c r="X40" s="101"/>
+      <c r="V40" s="87"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="89"/>
       <c r="Y40" s="24"/>
       <c r="Z40" s="25"/>
       <c r="AA40" s="26"/>
@@ -3252,13 +3246,13 @@
       <c r="AL40" s="25"/>
       <c r="AM40" s="26"/>
     </row>
-    <row r="41" spans="1:39" s="108" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C41" s="69" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="49"/>
@@ -3278,9 +3272,9 @@
       <c r="S41" s="49"/>
       <c r="T41" s="48"/>
       <c r="U41" s="50"/>
-      <c r="V41" s="105"/>
-      <c r="W41" s="106"/>
-      <c r="X41" s="107"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="94"/>
+      <c r="X41" s="95"/>
       <c r="Y41" s="49"/>
       <c r="Z41" s="48"/>
       <c r="AA41" s="50"/>
@@ -3300,7 +3294,7 @@
     <row r="42" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C42" s="70" t="s">
         <v>26</v>
@@ -3323,9 +3317,9 @@
       <c r="S42" s="36"/>
       <c r="T42" s="27"/>
       <c r="U42" s="42"/>
-      <c r="V42" s="103"/>
-      <c r="W42" s="103"/>
-      <c r="X42" s="104"/>
+      <c r="V42" s="91"/>
+      <c r="W42" s="91"/>
+      <c r="X42" s="92"/>
       <c r="Y42" s="27"/>
       <c r="Z42" s="27"/>
       <c r="AA42" s="42"/>
@@ -3344,7 +3338,7 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="68" t="s">
@@ -3368,16 +3362,18 @@
       <c r="S43" s="24"/>
       <c r="T43" s="25"/>
       <c r="U43" s="26"/>
-      <c r="V43" s="110"/>
-      <c r="W43" s="100"/>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="24">
-        <v>1</v>
-      </c>
+      <c r="V43" s="98"/>
+      <c r="W43" s="88"/>
+      <c r="X43" s="89"/>
+      <c r="Y43" s="25"/>
       <c r="Z43" s="25"/>
       <c r="AA43" s="26"/>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="25"/>
+      <c r="AB43" s="24">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="82">
+        <v>0.5</v>
+      </c>
       <c r="AD43" s="26"/>
       <c r="AE43" s="24"/>
       <c r="AF43" s="25"/>
@@ -3391,11 +3387,11 @@
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -3415,16 +3411,18 @@
       <c r="S44" s="24"/>
       <c r="T44" s="25"/>
       <c r="U44" s="26"/>
-      <c r="V44" s="110"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="24">
-        <v>0.5</v>
-      </c>
+      <c r="V44" s="98"/>
+      <c r="W44" s="88"/>
+      <c r="X44" s="89"/>
+      <c r="Y44" s="25"/>
       <c r="Z44" s="25"/>
       <c r="AA44" s="26"/>
-      <c r="AB44" s="24"/>
-      <c r="AC44" s="25"/>
+      <c r="AB44" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AC44" s="82">
+        <v>0.1</v>
+      </c>
       <c r="AD44" s="26"/>
       <c r="AE44" s="24"/>
       <c r="AF44" s="25"/>
@@ -3438,11 +3436,11 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="72" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
@@ -3462,16 +3460,18 @@
       <c r="S45" s="24"/>
       <c r="T45" s="25"/>
       <c r="U45" s="26"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="100"/>
-      <c r="X45" s="101"/>
-      <c r="Y45" s="24">
-        <v>1</v>
-      </c>
+      <c r="V45" s="98"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="89"/>
+      <c r="Y45" s="25"/>
       <c r="Z45" s="25"/>
       <c r="AA45" s="26"/>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="25"/>
+      <c r="AB45" s="24">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="82">
+        <v>2</v>
+      </c>
       <c r="AD45" s="26"/>
       <c r="AE45" s="24"/>
       <c r="AF45" s="25"/>
@@ -3485,11 +3485,11 @@
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="68" t="s">
-        <v>74</v>
+      <c r="C46" s="72" t="s">
+        <v>151</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
@@ -3509,17 +3509,21 @@
       <c r="S46" s="24"/>
       <c r="T46" s="25"/>
       <c r="U46" s="26"/>
-      <c r="V46" s="110"/>
-      <c r="W46" s="100"/>
-      <c r="X46" s="101"/>
-      <c r="Y46" s="24">
-        <v>2</v>
-      </c>
+      <c r="V46" s="98"/>
+      <c r="W46" s="88"/>
+      <c r="X46" s="89"/>
+      <c r="Y46" s="25"/>
       <c r="Z46" s="25"/>
       <c r="AA46" s="26"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="26"/>
+      <c r="AB46" s="24">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="82">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="47">
+        <v>1</v>
+      </c>
       <c r="AE46" s="24"/>
       <c r="AF46" s="25"/>
       <c r="AG46" s="26"/>
@@ -3532,11 +3536,11 @@
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -3556,19 +3560,27 @@
       <c r="S47" s="24"/>
       <c r="T47" s="25"/>
       <c r="U47" s="26"/>
-      <c r="V47" s="110"/>
-      <c r="W47" s="100"/>
-      <c r="X47" s="101"/>
-      <c r="Y47" s="24">
-        <v>1</v>
-      </c>
+      <c r="V47" s="98"/>
+      <c r="W47" s="88"/>
+      <c r="X47" s="89"/>
+      <c r="Y47" s="25"/>
       <c r="Z47" s="25"/>
       <c r="AA47" s="26"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="25"/>
+      <c r="AB47" s="24">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="82">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="24">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="82">
+        <v>1</v>
+      </c>
       <c r="AG47" s="26"/>
       <c r="AH47" s="24"/>
       <c r="AI47" s="25"/>
@@ -3579,11 +3591,11 @@
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -3603,19 +3615,21 @@
       <c r="S48" s="24"/>
       <c r="T48" s="25"/>
       <c r="U48" s="26"/>
-      <c r="V48" s="110"/>
-      <c r="W48" s="100"/>
-      <c r="X48" s="101"/>
+      <c r="V48" s="98"/>
+      <c r="W48" s="88"/>
+      <c r="X48" s="89"/>
       <c r="Y48" s="25"/>
       <c r="Z48" s="25"/>
       <c r="AA48" s="26"/>
-      <c r="AB48" s="24">
-        <v>1</v>
-      </c>
+      <c r="AB48" s="25"/>
       <c r="AC48" s="25"/>
       <c r="AD48" s="26"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="25"/>
+      <c r="AE48" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="82">
+        <v>1</v>
+      </c>
       <c r="AG48" s="26"/>
       <c r="AH48" s="24"/>
       <c r="AI48" s="25"/>
@@ -3624,13 +3638,13 @@
       <c r="AL48" s="25"/>
       <c r="AM48" s="26"/>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
-      <c r="B49" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="72" t="s">
-        <v>79</v>
+      <c r="B49" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>153</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
@@ -3650,18 +3664,18 @@
       <c r="S49" s="24"/>
       <c r="T49" s="25"/>
       <c r="U49" s="26"/>
-      <c r="V49" s="110"/>
-      <c r="W49" s="100"/>
-      <c r="X49" s="101"/>
+      <c r="V49" s="98"/>
+      <c r="W49" s="88"/>
+      <c r="X49" s="89"/>
       <c r="Y49" s="25"/>
       <c r="Z49" s="25"/>
       <c r="AA49" s="26"/>
-      <c r="AB49" s="24">
-        <v>2</v>
-      </c>
+      <c r="AB49" s="25"/>
       <c r="AC49" s="25"/>
       <c r="AD49" s="26"/>
-      <c r="AE49" s="24"/>
+      <c r="AE49" s="24">
+        <v>0.5</v>
+      </c>
       <c r="AF49" s="25"/>
       <c r="AG49" s="26"/>
       <c r="AH49" s="24"/>
@@ -3671,105 +3685,105 @@
       <c r="AL49" s="25"/>
       <c r="AM49" s="26"/>
     </row>
-    <row r="50" spans="1:39" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" s="97" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="90"/>
+      <c r="W50" s="88"/>
+      <c r="X50" s="89"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="41"/>
+      <c r="AB50" s="40"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="41"/>
+      <c r="AE50" s="40"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="41"/>
+      <c r="AH50" s="40"/>
+      <c r="AI50" s="39"/>
+      <c r="AJ50" s="41"/>
+      <c r="AK50" s="40"/>
+      <c r="AL50" s="39"/>
+      <c r="AM50" s="41"/>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
+      <c r="B51" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="110"/>
-      <c r="W50" s="100"/>
-      <c r="X50" s="101"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="25"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="AC50" s="25"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="24"/>
-      <c r="AF50" s="25"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="24"/>
-      <c r="AI50" s="25"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="24"/>
-      <c r="AL50" s="25"/>
-      <c r="AM50" s="26"/>
-    </row>
-    <row r="51" spans="1:39" s="109" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="81" t="s">
+      <c r="C51" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="39"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="102"/>
-      <c r="W51" s="100"/>
-      <c r="X51" s="101"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="39"/>
-      <c r="AA51" s="41"/>
-      <c r="AB51" s="40"/>
-      <c r="AC51" s="39"/>
-      <c r="AD51" s="41"/>
-      <c r="AE51" s="40"/>
-      <c r="AF51" s="39"/>
-      <c r="AG51" s="41"/>
-      <c r="AH51" s="40"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="41"/>
-      <c r="AK51" s="40"/>
-      <c r="AL51" s="39"/>
-      <c r="AM51" s="41"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="98"/>
+      <c r="W51" s="88"/>
+      <c r="X51" s="89"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="24">
+        <v>2</v>
+      </c>
+      <c r="AF51" s="25"/>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="24"/>
+      <c r="AI51" s="25"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="24"/>
+      <c r="AL51" s="25"/>
+      <c r="AM51" s="26"/>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
-      <c r="B52" s="28" t="s">
-        <v>108</v>
+      <c r="B52" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="C52" s="68" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
@@ -3789,18 +3803,18 @@
       <c r="S52" s="24"/>
       <c r="T52" s="25"/>
       <c r="U52" s="26"/>
-      <c r="V52" s="110"/>
-      <c r="W52" s="100"/>
-      <c r="X52" s="101"/>
+      <c r="V52" s="98"/>
+      <c r="W52" s="88"/>
+      <c r="X52" s="89"/>
       <c r="Y52" s="25"/>
       <c r="Z52" s="25"/>
       <c r="AA52" s="26"/>
-      <c r="AB52" s="24">
-        <v>2</v>
-      </c>
+      <c r="AB52" s="25"/>
       <c r="AC52" s="25"/>
       <c r="AD52" s="26"/>
-      <c r="AE52" s="24"/>
+      <c r="AE52" s="24">
+        <v>1.5</v>
+      </c>
       <c r="AF52" s="25"/>
       <c r="AG52" s="26"/>
       <c r="AH52" s="24"/>
@@ -3813,10 +3827,10 @@
     <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C53" s="68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
@@ -3836,18 +3850,18 @@
       <c r="S53" s="24"/>
       <c r="T53" s="25"/>
       <c r="U53" s="26"/>
-      <c r="V53" s="110"/>
-      <c r="W53" s="100"/>
-      <c r="X53" s="101"/>
+      <c r="V53" s="98"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="89"/>
       <c r="Y53" s="25"/>
       <c r="Z53" s="25"/>
       <c r="AA53" s="26"/>
-      <c r="AB53" s="24">
-        <v>1.5</v>
-      </c>
+      <c r="AB53" s="25"/>
       <c r="AC53" s="25"/>
       <c r="AD53" s="26"/>
-      <c r="AE53" s="24"/>
+      <c r="AE53" s="24">
+        <v>0.5</v>
+      </c>
       <c r="AF53" s="25"/>
       <c r="AG53" s="26"/>
       <c r="AH53" s="24"/>
@@ -3858,12 +3872,11 @@
       <c r="AM53" s="26"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
       <c r="B54" s="28" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C54" s="68" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
@@ -3883,18 +3896,18 @@
       <c r="S54" s="24"/>
       <c r="T54" s="25"/>
       <c r="U54" s="26"/>
-      <c r="V54" s="110"/>
-      <c r="W54" s="100"/>
-      <c r="X54" s="101"/>
+      <c r="V54" s="98"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="89"/>
       <c r="Y54" s="25"/>
       <c r="Z54" s="25"/>
       <c r="AA54" s="26"/>
-      <c r="AB54" s="24">
-        <v>0.5</v>
-      </c>
+      <c r="AB54" s="25"/>
       <c r="AC54" s="25"/>
       <c r="AD54" s="26"/>
-      <c r="AE54" s="24"/>
+      <c r="AE54" s="24">
+        <v>2</v>
+      </c>
       <c r="AF54" s="25"/>
       <c r="AG54" s="26"/>
       <c r="AH54" s="24"/>
@@ -3904,104 +3917,105 @@
       <c r="AL54" s="25"/>
       <c r="AM54" s="26"/>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B55" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C55" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="110"/>
-      <c r="W55" s="100"/>
-      <c r="X55" s="101"/>
-      <c r="Y55" s="25"/>
-      <c r="Z55" s="25"/>
-      <c r="AA55" s="26"/>
-      <c r="AB55" s="25"/>
-      <c r="AC55" s="25"/>
-      <c r="AD55" s="26"/>
-      <c r="AE55" s="24">
-        <v>2</v>
-      </c>
-      <c r="AF55" s="25"/>
-      <c r="AG55" s="26"/>
-      <c r="AH55" s="24"/>
-      <c r="AI55" s="25"/>
-      <c r="AJ55" s="26"/>
-      <c r="AK55" s="24"/>
-      <c r="AL55" s="25"/>
-      <c r="AM55" s="26"/>
-    </row>
-    <row r="56" spans="1:39" s="109" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="42"/>
-      <c r="V56" s="102"/>
-      <c r="W56" s="100"/>
-      <c r="X56" s="101"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="41"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="41"/>
-      <c r="AE56" s="40"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="41"/>
-      <c r="AH56" s="40"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="41"/>
-      <c r="AK56" s="40"/>
-      <c r="AL56" s="39"/>
-      <c r="AM56" s="41"/>
+    <row r="55" spans="1:39" s="97" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
+      <c r="B55" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="90"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="89"/>
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="41"/>
+      <c r="AE55" s="40"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="41"/>
+      <c r="AH55" s="40"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="41"/>
+      <c r="AK55" s="40"/>
+      <c r="AL55" s="39"/>
+      <c r="AM55" s="41"/>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="87"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="89"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="25"/>
+      <c r="AD56" s="26"/>
+      <c r="AE56" s="25"/>
+      <c r="AF56" s="25"/>
+      <c r="AG56" s="26"/>
+      <c r="AH56" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="AI56" s="25"/>
+      <c r="AJ56" s="26"/>
+      <c r="AK56" s="24"/>
+      <c r="AL56" s="25"/>
+      <c r="AM56" s="26"/>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="67" t="s">
-        <v>153</v>
+        <v>128</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>101</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
@@ -4012,226 +4026,227 @@
       <c r="J57" s="24"/>
       <c r="K57" s="25"/>
       <c r="L57" s="26"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="60"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="25"/>
       <c r="O57" s="26"/>
+      <c r="P57" s="24"/>
       <c r="Q57" s="25"/>
       <c r="R57" s="26"/>
       <c r="S57" s="24"/>
       <c r="T57" s="25"/>
       <c r="U57" s="26"/>
-      <c r="V57" s="99"/>
-      <c r="W57" s="100"/>
-      <c r="X57" s="101"/>
-      <c r="Y57" s="25"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="88"/>
+      <c r="X57" s="89"/>
+      <c r="Y57" s="24"/>
       <c r="Z57" s="25"/>
       <c r="AA57" s="26"/>
       <c r="AB57" s="25"/>
       <c r="AC57" s="25"/>
       <c r="AD57" s="26"/>
-      <c r="AE57" s="24">
-        <v>0.5</v>
-      </c>
+      <c r="AE57" s="25"/>
       <c r="AF57" s="25"/>
       <c r="AG57" s="26"/>
-      <c r="AH57" s="24"/>
+      <c r="AH57" s="24">
+        <v>3</v>
+      </c>
       <c r="AI57" s="25"/>
       <c r="AJ57" s="26"/>
       <c r="AK57" s="24"/>
       <c r="AL57" s="25"/>
       <c r="AM57" s="26"/>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
-      <c r="B58" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="25"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="100"/>
-      <c r="X58" s="101"/>
-      <c r="Y58" s="25"/>
-      <c r="Z58" s="25"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="25"/>
-      <c r="AC58" s="25"/>
-      <c r="AD58" s="26"/>
-      <c r="AE58" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="AF58" s="25"/>
-      <c r="AG58" s="26"/>
-      <c r="AH58" s="24"/>
-      <c r="AI58" s="25"/>
-      <c r="AJ58" s="26"/>
-      <c r="AK58" s="24"/>
-      <c r="AL58" s="25"/>
-      <c r="AM58" s="26"/>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B58" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="54"/>
+      <c r="T58" s="53"/>
+      <c r="U58" s="55"/>
+      <c r="V58" s="87"/>
+      <c r="W58" s="88"/>
+      <c r="X58" s="89"/>
+      <c r="Y58" s="54"/>
+      <c r="Z58" s="53"/>
+      <c r="AA58" s="55"/>
+      <c r="AB58" s="54"/>
+      <c r="AC58" s="53"/>
+      <c r="AD58" s="55"/>
+      <c r="AE58" s="54"/>
+      <c r="AF58" s="53"/>
+      <c r="AG58" s="55"/>
+      <c r="AH58" s="54"/>
+      <c r="AI58" s="53"/>
+      <c r="AJ58" s="55"/>
+      <c r="AK58" s="54"/>
+      <c r="AL58" s="53"/>
+      <c r="AM58" s="55"/>
+    </row>
+    <row r="59" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
-      <c r="B59" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="24"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="99"/>
-      <c r="W59" s="100"/>
-      <c r="X59" s="101"/>
-      <c r="Y59" s="24"/>
-      <c r="Z59" s="25"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="25"/>
-      <c r="AC59" s="25"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="24">
+      <c r="B59" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="36"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="90"/>
+      <c r="W59" s="91"/>
+      <c r="X59" s="92"/>
+      <c r="Y59" s="36"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="42"/>
+      <c r="AB59" s="36"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="42"/>
+      <c r="AE59" s="36"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="42"/>
+      <c r="AH59" s="36"/>
+      <c r="AI59" s="27"/>
+      <c r="AJ59" s="42"/>
+      <c r="AK59" s="36"/>
+      <c r="AL59" s="27"/>
+      <c r="AM59" s="42"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
+      <c r="B60" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="26"/>
+      <c r="V60" s="87"/>
+      <c r="W60" s="88"/>
+      <c r="X60" s="89"/>
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="83"/>
+      <c r="AB60" s="100"/>
+      <c r="AC60" s="25"/>
+      <c r="AD60" s="26"/>
+      <c r="AE60" s="25"/>
+      <c r="AF60" s="25"/>
+      <c r="AG60" s="26"/>
+      <c r="AH60" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AI60" s="25"/>
+      <c r="AJ60" s="26"/>
+      <c r="AK60" s="24"/>
+      <c r="AL60" s="25"/>
+      <c r="AM60" s="26"/>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="26"/>
+      <c r="V61" s="87"/>
+      <c r="W61" s="88"/>
+      <c r="X61" s="89"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="83"/>
+      <c r="AB61" s="100"/>
+      <c r="AC61" s="25"/>
+      <c r="AD61" s="26"/>
+      <c r="AE61" s="25"/>
+      <c r="AF61" s="25"/>
+      <c r="AG61" s="26"/>
+      <c r="AH61" s="24">
         <v>3</v>
       </c>
-      <c r="AF59" s="25"/>
-      <c r="AG59" s="26"/>
-      <c r="AH59" s="24"/>
-      <c r="AI59" s="25"/>
-      <c r="AJ59" s="26"/>
-      <c r="AK59" s="24"/>
-      <c r="AL59" s="25"/>
-      <c r="AM59" s="26"/>
-    </row>
-    <row r="60" spans="1:39" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="53"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="99"/>
-      <c r="W60" s="100"/>
-      <c r="X60" s="101"/>
-      <c r="Y60" s="54"/>
-      <c r="Z60" s="53"/>
-      <c r="AA60" s="55"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="53"/>
-      <c r="AD60" s="55"/>
-      <c r="AE60" s="54"/>
-      <c r="AF60" s="53"/>
-      <c r="AG60" s="55"/>
-      <c r="AH60" s="54"/>
-      <c r="AI60" s="53"/>
-      <c r="AJ60" s="55"/>
-      <c r="AK60" s="54"/>
-      <c r="AL60" s="53"/>
-      <c r="AM60" s="55"/>
-    </row>
-    <row r="61" spans="1:39" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="102"/>
-      <c r="W61" s="103"/>
-      <c r="X61" s="104"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="27"/>
-      <c r="AA61" s="42"/>
-      <c r="AB61" s="36"/>
-      <c r="AC61" s="27"/>
-      <c r="AD61" s="42"/>
-      <c r="AE61" s="36"/>
-      <c r="AF61" s="27"/>
-      <c r="AG61" s="42"/>
-      <c r="AH61" s="36"/>
-      <c r="AI61" s="27"/>
-      <c r="AJ61" s="42"/>
-      <c r="AK61" s="36"/>
-      <c r="AL61" s="27"/>
-      <c r="AM61" s="42"/>
+      <c r="AI61" s="25"/>
+      <c r="AJ61" s="26"/>
+      <c r="AK61" s="24"/>
+      <c r="AL61" s="25"/>
+      <c r="AM61" s="26"/>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C62" s="67" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
@@ -4251,20 +4266,20 @@
       <c r="S62" s="24"/>
       <c r="T62" s="25"/>
       <c r="U62" s="26"/>
-      <c r="V62" s="99"/>
-      <c r="W62" s="100"/>
-      <c r="X62" s="101"/>
+      <c r="V62" s="87"/>
+      <c r="W62" s="88"/>
+      <c r="X62" s="89"/>
       <c r="Y62" s="24"/>
       <c r="Z62" s="25"/>
-      <c r="AA62" s="84"/>
-      <c r="AB62" s="112"/>
+      <c r="AA62" s="83"/>
+      <c r="AB62" s="100"/>
       <c r="AC62" s="25"/>
       <c r="AD62" s="26"/>
       <c r="AE62" s="25"/>
       <c r="AF62" s="25"/>
       <c r="AG62" s="26"/>
       <c r="AH62" s="24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="26"/>
@@ -4272,379 +4287,375 @@
       <c r="AL62" s="25"/>
       <c r="AM62" s="26"/>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="54"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="87"/>
+      <c r="W63" s="88"/>
+      <c r="X63" s="89"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="53"/>
+      <c r="AA63" s="55"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="53"/>
+      <c r="AD63" s="55"/>
+      <c r="AE63" s="54"/>
+      <c r="AF63" s="53"/>
+      <c r="AG63" s="55"/>
+      <c r="AH63" s="54"/>
+      <c r="AI63" s="53"/>
+      <c r="AJ63" s="55"/>
+      <c r="AK63" s="54"/>
+      <c r="AL63" s="53"/>
+      <c r="AM63" s="55"/>
+    </row>
+    <row r="64" spans="1:39" s="101" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="58"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="58"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="59"/>
+      <c r="S64" s="58"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="59"/>
+      <c r="V64" s="87"/>
+      <c r="W64" s="88"/>
+      <c r="X64" s="89"/>
+      <c r="Y64" s="58"/>
+      <c r="Z64" s="57"/>
+      <c r="AA64" s="59"/>
+      <c r="AB64" s="58"/>
+      <c r="AC64" s="57"/>
+      <c r="AD64" s="59"/>
+      <c r="AE64" s="58"/>
+      <c r="AF64" s="57"/>
+      <c r="AG64" s="59"/>
+      <c r="AH64" s="58"/>
+      <c r="AI64" s="57"/>
+      <c r="AJ64" s="59"/>
+      <c r="AK64" s="58"/>
+      <c r="AL64" s="57"/>
+      <c r="AM64" s="59"/>
+    </row>
+    <row r="65" spans="1:39" s="102" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
+      <c r="B65" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="60"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="60"/>
+      <c r="O65" s="62"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="60"/>
+      <c r="R65" s="62"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="60"/>
+      <c r="U65" s="62"/>
+      <c r="V65" s="87"/>
+      <c r="W65" s="88"/>
+      <c r="X65" s="89"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="60"/>
+      <c r="AA65" s="26"/>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="25"/>
+      <c r="AD65" s="26"/>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="60"/>
+      <c r="AG65" s="62"/>
+      <c r="AH65" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="AI65" s="60"/>
+      <c r="AJ65" s="62"/>
+      <c r="AK65" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL65" s="60"/>
+      <c r="AM65" s="62"/>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="26"/>
-      <c r="V63" s="99"/>
-      <c r="W63" s="100"/>
-      <c r="X63" s="101"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="25"/>
-      <c r="AA63" s="84"/>
-      <c r="AB63" s="112"/>
-      <c r="AC63" s="25"/>
-      <c r="AD63" s="26"/>
-      <c r="AE63" s="25"/>
-      <c r="AF63" s="25"/>
-      <c r="AG63" s="26"/>
-      <c r="AH63" s="24">
-        <v>3</v>
-      </c>
-      <c r="AI63" s="25"/>
-      <c r="AJ63" s="26"/>
-      <c r="AK63" s="24"/>
-      <c r="AL63" s="25"/>
-      <c r="AM63" s="26"/>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="25"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="25"/>
-      <c r="U64" s="26"/>
-      <c r="V64" s="99"/>
-      <c r="W64" s="100"/>
-      <c r="X64" s="101"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="25"/>
-      <c r="AA64" s="84"/>
-      <c r="AB64" s="112"/>
-      <c r="AC64" s="25"/>
-      <c r="AD64" s="26"/>
-      <c r="AE64" s="25"/>
-      <c r="AF64" s="25"/>
-      <c r="AG64" s="26"/>
-      <c r="AH64" s="24">
+      <c r="C66" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="26"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="26"/>
+      <c r="V66" s="87"/>
+      <c r="W66" s="88"/>
+      <c r="X66" s="89"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="25"/>
+      <c r="AA66" s="26"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="25"/>
+      <c r="AD66" s="26"/>
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="25"/>
+      <c r="AG66" s="26"/>
+      <c r="AI66" s="25"/>
+      <c r="AJ66" s="26"/>
+      <c r="AK66" s="24">
         <v>1</v>
       </c>
-      <c r="AI64" s="25"/>
-      <c r="AJ64" s="26"/>
-      <c r="AK64" s="24"/>
-      <c r="AL64" s="25"/>
-      <c r="AM64" s="26"/>
-    </row>
-    <row r="65" spans="1:39" s="111" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="53"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="99"/>
-      <c r="W65" s="100"/>
-      <c r="X65" s="101"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="53"/>
-      <c r="AA65" s="55"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="53"/>
-      <c r="AD65" s="55"/>
-      <c r="AE65" s="54"/>
-      <c r="AF65" s="53"/>
-      <c r="AG65" s="55"/>
-      <c r="AH65" s="54"/>
-      <c r="AI65" s="53"/>
-      <c r="AJ65" s="55"/>
-      <c r="AK65" s="54"/>
-      <c r="AL65" s="53"/>
-      <c r="AM65" s="55"/>
-    </row>
-    <row r="66" spans="1:39" s="113" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="58"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="58"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="58"/>
-      <c r="T66" s="57"/>
-      <c r="U66" s="59"/>
-      <c r="V66" s="99"/>
-      <c r="W66" s="100"/>
-      <c r="X66" s="101"/>
-      <c r="Y66" s="58"/>
-      <c r="Z66" s="57"/>
-      <c r="AA66" s="59"/>
-      <c r="AB66" s="58"/>
-      <c r="AC66" s="57"/>
-      <c r="AD66" s="59"/>
-      <c r="AE66" s="58"/>
-      <c r="AF66" s="57"/>
-      <c r="AG66" s="59"/>
-      <c r="AH66" s="58"/>
-      <c r="AI66" s="57"/>
-      <c r="AJ66" s="59"/>
-      <c r="AK66" s="58"/>
-      <c r="AL66" s="57"/>
-      <c r="AM66" s="59"/>
-    </row>
-    <row r="67" spans="1:39" s="114" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL66" s="25"/>
+      <c r="AM66" s="26"/>
+    </row>
+    <row r="67" spans="1:39" s="99" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
-      <c r="B67" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="61"/>
-      <c r="N67" s="60"/>
-      <c r="O67" s="62"/>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="60"/>
-      <c r="R67" s="62"/>
-      <c r="S67" s="61"/>
-      <c r="T67" s="60"/>
-      <c r="U67" s="62"/>
-      <c r="V67" s="99"/>
-      <c r="W67" s="100"/>
-      <c r="X67" s="101"/>
-      <c r="Y67" s="61"/>
-      <c r="Z67" s="60"/>
-      <c r="AA67" s="26"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="25"/>
-      <c r="AD67" s="26"/>
-      <c r="AE67" s="24"/>
-      <c r="AF67" s="60"/>
-      <c r="AG67" s="62"/>
-      <c r="AH67" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="AI67" s="60"/>
-      <c r="AJ67" s="62"/>
-      <c r="AK67" s="61">
-        <v>1</v>
-      </c>
-      <c r="AL67" s="60"/>
-      <c r="AM67" s="62"/>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B67" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="53"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="53"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="54"/>
+      <c r="T67" s="53"/>
+      <c r="U67" s="55"/>
+      <c r="V67" s="87"/>
+      <c r="W67" s="88"/>
+      <c r="X67" s="89"/>
+      <c r="Y67" s="54"/>
+      <c r="Z67" s="53"/>
+      <c r="AA67" s="55"/>
+      <c r="AB67" s="54"/>
+      <c r="AC67" s="53"/>
+      <c r="AD67" s="55"/>
+      <c r="AE67" s="54"/>
+      <c r="AF67" s="53"/>
+      <c r="AG67" s="55"/>
+      <c r="AH67" s="54"/>
+      <c r="AI67" s="53"/>
+      <c r="AJ67" s="55"/>
+      <c r="AK67" s="54"/>
+      <c r="AL67" s="53"/>
+      <c r="AM67" s="55"/>
+    </row>
+    <row r="68" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
-      <c r="B68" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="24"/>
-      <c r="T68" s="25"/>
-      <c r="U68" s="26"/>
-      <c r="V68" s="99"/>
-      <c r="W68" s="100"/>
-      <c r="X68" s="101"/>
-      <c r="Y68" s="24"/>
-      <c r="Z68" s="25"/>
-      <c r="AA68" s="26"/>
-      <c r="AB68" s="24"/>
-      <c r="AC68" s="25"/>
-      <c r="AD68" s="26"/>
-      <c r="AE68" s="24"/>
-      <c r="AF68" s="25"/>
-      <c r="AG68" s="26"/>
-      <c r="AI68" s="25"/>
-      <c r="AJ68" s="26"/>
-      <c r="AK68" s="24">
-        <v>1</v>
-      </c>
-      <c r="AL68" s="25"/>
-      <c r="AM68" s="26"/>
-    </row>
-    <row r="69" spans="1:39" s="111" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="27"/>
+      <c r="U68" s="42"/>
+      <c r="V68" s="90"/>
+      <c r="W68" s="91"/>
+      <c r="X68" s="92"/>
+      <c r="Y68" s="36"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="42"/>
+      <c r="AB68" s="36"/>
+      <c r="AC68" s="27"/>
+      <c r="AD68" s="42"/>
+      <c r="AE68" s="36"/>
+      <c r="AF68" s="27"/>
+      <c r="AG68" s="42"/>
+      <c r="AH68" s="36"/>
+      <c r="AI68" s="27"/>
+      <c r="AJ68" s="42"/>
+      <c r="AK68" s="36"/>
+      <c r="AL68" s="27"/>
+      <c r="AM68" s="42"/>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
-      <c r="B69" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="55"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="55"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="55"/>
-      <c r="S69" s="54"/>
-      <c r="T69" s="53"/>
-      <c r="U69" s="55"/>
-      <c r="V69" s="99"/>
-      <c r="W69" s="100"/>
-      <c r="X69" s="101"/>
-      <c r="Y69" s="54"/>
-      <c r="Z69" s="53"/>
-      <c r="AA69" s="55"/>
-      <c r="AB69" s="54"/>
-      <c r="AC69" s="53"/>
-      <c r="AD69" s="55"/>
-      <c r="AE69" s="54"/>
-      <c r="AF69" s="53"/>
-      <c r="AG69" s="55"/>
-      <c r="AH69" s="54"/>
-      <c r="AI69" s="53"/>
-      <c r="AJ69" s="55"/>
-      <c r="AK69" s="54"/>
-      <c r="AL69" s="53"/>
-      <c r="AM69" s="55"/>
-    </row>
-    <row r="70" spans="1:39" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="26"/>
+      <c r="V69" s="87"/>
+      <c r="W69" s="88"/>
+      <c r="X69" s="89"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="26"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="26"/>
+      <c r="AH69" s="24"/>
+      <c r="AI69" s="25"/>
+      <c r="AJ69" s="26"/>
+      <c r="AK69" s="24"/>
+      <c r="AL69" s="25"/>
+      <c r="AM69" s="26"/>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
-      <c r="B70" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="42"/>
-      <c r="P70" s="36"/>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="42"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="27"/>
-      <c r="U70" s="42"/>
-      <c r="V70" s="102"/>
-      <c r="W70" s="103"/>
-      <c r="X70" s="104"/>
-      <c r="Y70" s="36"/>
-      <c r="Z70" s="27"/>
-      <c r="AA70" s="42"/>
-      <c r="AB70" s="36"/>
-      <c r="AC70" s="27"/>
-      <c r="AD70" s="42"/>
-      <c r="AE70" s="36"/>
-      <c r="AF70" s="27"/>
-      <c r="AG70" s="42"/>
-      <c r="AH70" s="36"/>
-      <c r="AI70" s="27"/>
-      <c r="AJ70" s="42"/>
-      <c r="AK70" s="36"/>
-      <c r="AL70" s="27"/>
-      <c r="AM70" s="42"/>
+      <c r="B70" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="26"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="26"/>
+      <c r="V70" s="87"/>
+      <c r="W70" s="88"/>
+      <c r="X70" s="89"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="26"/>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="25"/>
+      <c r="AD70" s="26"/>
+      <c r="AE70" s="24"/>
+      <c r="AF70" s="25"/>
+      <c r="AG70" s="26"/>
+      <c r="AH70" s="24"/>
+      <c r="AI70" s="25"/>
+      <c r="AJ70" s="26"/>
+      <c r="AK70" s="24"/>
+      <c r="AL70" s="25"/>
+      <c r="AM70" s="26"/>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C71" s="68" t="s">
         <v>13</v>
@@ -4667,9 +4678,9 @@
       <c r="S71" s="24"/>
       <c r="T71" s="25"/>
       <c r="U71" s="26"/>
-      <c r="V71" s="99"/>
-      <c r="W71" s="100"/>
-      <c r="X71" s="101"/>
+      <c r="V71" s="87"/>
+      <c r="W71" s="88"/>
+      <c r="X71" s="89"/>
       <c r="Y71" s="24"/>
       <c r="Z71" s="25"/>
       <c r="AA71" s="26"/>
@@ -4689,7 +4700,7 @@
     <row r="72" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C72" s="68" t="s">
         <v>13</v>
@@ -4712,9 +4723,9 @@
       <c r="S72" s="24"/>
       <c r="T72" s="25"/>
       <c r="U72" s="26"/>
-      <c r="V72" s="99"/>
-      <c r="W72" s="100"/>
-      <c r="X72" s="101"/>
+      <c r="V72" s="87"/>
+      <c r="W72" s="88"/>
+      <c r="X72" s="89"/>
       <c r="Y72" s="24"/>
       <c r="Z72" s="25"/>
       <c r="AA72" s="26"/>
@@ -4734,7 +4745,7 @@
     <row r="73" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C73" s="68" t="s">
         <v>13</v>
@@ -4757,9 +4768,9 @@
       <c r="S73" s="24"/>
       <c r="T73" s="25"/>
       <c r="U73" s="26"/>
-      <c r="V73" s="99"/>
-      <c r="W73" s="100"/>
-      <c r="X73" s="101"/>
+      <c r="V73" s="87"/>
+      <c r="W73" s="88"/>
+      <c r="X73" s="89"/>
       <c r="Y73" s="24"/>
       <c r="Z73" s="25"/>
       <c r="AA73" s="26"/>
@@ -4778,183 +4789,93 @@
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
-      <c r="B74" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="25"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="24"/>
-      <c r="T74" s="25"/>
-      <c r="U74" s="26"/>
-      <c r="V74" s="99"/>
-      <c r="W74" s="100"/>
-      <c r="X74" s="101"/>
-      <c r="Y74" s="24"/>
-      <c r="Z74" s="25"/>
-      <c r="AA74" s="26"/>
-      <c r="AB74" s="24"/>
-      <c r="AC74" s="25"/>
-      <c r="AD74" s="26"/>
-      <c r="AE74" s="24"/>
-      <c r="AF74" s="25"/>
-      <c r="AG74" s="26"/>
-      <c r="AH74" s="24"/>
-      <c r="AI74" s="25"/>
-      <c r="AJ74" s="26"/>
-      <c r="AK74" s="24"/>
-      <c r="AL74" s="25"/>
-      <c r="AM74" s="26"/>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B74" s="2"/>
+      <c r="C74" s="14"/>
+    </row>
+    <row r="75" spans="1:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
-      <c r="B75" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="26"/>
-      <c r="S75" s="24"/>
-      <c r="T75" s="25"/>
-      <c r="U75" s="26"/>
-      <c r="V75" s="99"/>
-      <c r="W75" s="100"/>
-      <c r="X75" s="101"/>
-      <c r="Y75" s="24"/>
-      <c r="Z75" s="25"/>
-      <c r="AA75" s="26"/>
-      <c r="AB75" s="24"/>
-      <c r="AC75" s="25"/>
-      <c r="AD75" s="26"/>
-      <c r="AE75" s="24"/>
-      <c r="AF75" s="25"/>
-      <c r="AG75" s="26"/>
-      <c r="AH75" s="24"/>
-      <c r="AI75" s="25"/>
-      <c r="AJ75" s="26"/>
-      <c r="AK75" s="24"/>
-      <c r="AL75" s="25"/>
-      <c r="AM75" s="26"/>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B75" s="2"/>
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="14"/>
-    </row>
-    <row r="77" spans="1:39" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="14"/>
-    </row>
-    <row r="78" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="5"/>
+      <c r="C77" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
-      <c r="B78" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:39" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="6"/>
+      <c r="C78" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
-      <c r="B79" s="5"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="6"/>
       <c r="C80" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="19" t="s">
+      <c r="B81" s="7"/>
+      <c r="C81" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="13" t="s">
+    <row r="83" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D85" s="115" t="s">
+      <c r="D83" s="103" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="104"/>
+      <c r="B84" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="116"/>
-      <c r="B86" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="117" t="s">
-        <v>50</v>
+      <c r="B86" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B87" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B89" s="11" t="s">
+      <c r="B87" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B90" s="118" t="s">
-        <v>156</v>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B88" s="106" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
